--- a/SpaOnline/EventStorming/Servicios-Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Servicios-Event Storming.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Escritorio\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02A6E696-B736-446B-B8FE-AFD2580C261B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68709EE8-861D-473D-A6E4-3953619B42F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
@@ -347,9 +347,6 @@
     <t xml:space="preserve">Esta accion permite eliminar  los diferentes servicios que ofrece el spa </t>
   </si>
   <si>
-    <t>Que el  Servicio exista y que no tenga un tipo de Servicio asociado y ninguna oferta asociada</t>
-  </si>
-  <si>
     <t xml:space="preserve">Servicio Eliminado </t>
   </si>
   <si>
@@ -371,9 +368,6 @@
     <t>Pol-Oferta-003</t>
   </si>
   <si>
-    <t>No debe existir otra Oferta con el mismo nombre</t>
-  </si>
-  <si>
     <t>Los datos de la nueva Oferta deben ser validos a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
   </si>
   <si>
@@ -431,10 +425,16 @@
     <t>Debe existir la Oferta que se esta modificando</t>
   </si>
   <si>
-    <t xml:space="preserve">Que la Oferta exista y que no tenga un Servicio asociado </t>
-  </si>
-  <si>
     <t>Oferta Eliminada</t>
+  </si>
+  <si>
+    <t>Que el  Servicio exista y que no tengay ninguna oferta asociada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que la Oferta exista </t>
+  </si>
+  <si>
+    <t>No debe existir otra Oferta con el mismo servicio y descuento</t>
   </si>
 </sst>
 </file>
@@ -1003,6 +1003,129 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1015,6 +1138,156 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1063,157 +1336,244 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1222,273 +1582,12 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1498,110 +1597,11 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2025,21 +2025,21 @@
       <c r="A1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -2145,84 +2145,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42" t="str">
+      <c r="B2" s="133" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Tipo Servicio</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="str">
+      <c r="B3" s="135" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>objeto de dominio que contiene la informacion de los tipos de servicio que tiene el spa.</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="136"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="125"/>
       <c r="D4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="111"/>
+      <c r="G4" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="128"/>
       <c r="I4" s="12" t="s">
         <v>14</v>
       </c>
@@ -2232,52 +2232,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="132" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="35" t="s">
+      <c r="F5" s="111"/>
+      <c r="G5" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="38" t="s">
+      <c r="H5" s="126"/>
+      <c r="I5" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="41"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="132"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="31"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2290,341 +2290,341 @@
       <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="132"/>
     </row>
     <row r="7" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53" t="s">
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52" t="s">
+      <c r="I7" s="95"/>
+      <c r="J7" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52" t="s">
+      <c r="K7" s="95"/>
+      <c r="L7" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="M7" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60" t="s">
+      <c r="A8" s="113"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="55" t="s">
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="55" t="s">
+      <c r="A9" s="114"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71" t="s">
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71" t="s">
+      <c r="I10" s="104"/>
+      <c r="J10" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71" t="s">
+      <c r="K10" s="104"/>
+      <c r="L10" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="68" t="s">
+      <c r="M10" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="68" t="s">
+      <c r="B11" s="99"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75" t="s">
+      <c r="B12" s="99"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="82" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="79"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="83"/>
     </row>
     <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="83" t="s">
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80" t="s">
+      <c r="I14" s="84"/>
+      <c r="J14" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="80"/>
-      <c r="L14" s="86" t="s">
+      <c r="K14" s="84"/>
+      <c r="L14" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="85" t="s">
+      <c r="M14" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="88"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="86" t="s">
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="90" t="s">
+      <c r="H15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="80" t="s">
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="91" t="s">
+      <c r="M15" s="93" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="83" t="s">
+      <c r="A16" s="86"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="96"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="94"/>
     </row>
     <row r="17" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99" t="s">
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="100" t="s">
+      <c r="H17" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99" t="s">
+      <c r="I17" s="71"/>
+      <c r="J17" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="99"/>
-      <c r="L17" s="102" t="s">
+      <c r="K17" s="71"/>
+      <c r="L17" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="103" t="s">
+      <c r="M17" s="74" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="102" t="s">
+      <c r="A18" s="72"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="107"/>
+      <c r="M18" s="75"/>
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="111" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="112" t="s">
+      <c r="M19" s="38" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="L7:L9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
@@ -2641,30 +2641,30 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2680,8 +2680,8 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2708,84 +2708,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42" t="str">
+      <c r="B2" s="133" t="str">
         <f>'Listado Objetos de Dominio'!$A$5</f>
         <v>Servicio</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="str">
+      <c r="B3" s="135" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v xml:space="preserve">objeto de dominio que contiene la informacion de los servicios que ofrece el spa. </v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="136"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="125"/>
       <c r="D4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="111"/>
+      <c r="G4" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="128"/>
       <c r="I4" s="12" t="s">
         <v>14</v>
       </c>
@@ -2795,52 +2795,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="132" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="35" t="s">
+      <c r="F5" s="111"/>
+      <c r="G5" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="38" t="s">
+      <c r="H5" s="126"/>
+      <c r="I5" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="41"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="132"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="31"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2853,348 +2853,373 @@
       <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="132"/>
     </row>
     <row r="7" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="135" t="s">
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="117" t="s">
+      <c r="H7" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116" t="s">
+      <c r="I7" s="176"/>
+      <c r="J7" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116" t="s">
+      <c r="K7" s="176"/>
+      <c r="L7" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="40" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="123" t="s">
+      <c r="A8" s="180"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="124" t="s">
+      <c r="H8" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="118" t="s">
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="127" t="s">
+      <c r="A9" s="180"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="174" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="128"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="134" t="s">
+      <c r="A10" s="181"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="132" t="s">
+      <c r="H10" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="133"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="175"/>
     </row>
     <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="139" t="s">
+      <c r="D11" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139" t="s">
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="138" t="s">
+      <c r="H11" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139" t="s">
+      <c r="I11" s="148"/>
+      <c r="J11" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139" t="s">
+      <c r="K11" s="148"/>
+      <c r="L11" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="M11" s="136" t="s">
+      <c r="M11" s="44" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="140"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="142"/>
-      <c r="M12" s="136" t="s">
+      <c r="B12" s="168"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="142"/>
-      <c r="M13" s="143" t="s">
+      <c r="B13" s="168"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="151" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="147"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="152"/>
     </row>
     <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="149" t="s">
+      <c r="C15" s="159" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="151" t="s">
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="152" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148" t="s">
+      <c r="H15" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="148"/>
-      <c r="L15" s="153" t="s">
+      <c r="K15" s="153"/>
+      <c r="L15" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="154" t="s">
+      <c r="M15" s="48" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="153" t="s">
+      <c r="A16" s="154"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="158" t="s">
+      <c r="H16" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="148" t="s">
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="M16" s="159" t="s">
+      <c r="M16" s="162" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="160"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="151" t="s">
+      <c r="A17" s="155"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="164" t="s">
+      <c r="H17" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
       <c r="M17" s="163"/>
     </row>
     <row r="18" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="165" t="s">
+      <c r="A18" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="167" t="s">
+      <c r="C18" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="165" t="s">
+      <c r="D18" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="166" t="s">
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="142" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="165"/>
-      <c r="L18" s="168" t="s">
+      <c r="K18" s="137"/>
+      <c r="L18" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="169" t="s">
+      <c r="M18" s="140" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="170"/>
-      <c r="B19" s="171"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="168" t="s">
+      <c r="A19" s="138"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="M19" s="173"/>
+      <c r="M19" s="141"/>
     </row>
     <row r="20" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="174"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="174"/>
-      <c r="L20" s="177" t="s">
+      <c r="A20" s="139"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="M20" s="178" t="s">
+      <c r="M20" s="53" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
     <mergeCell ref="L11:L14"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="A15:A17"/>
@@ -3211,43 +3236,18 @@
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -3263,7 +3263,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3290,84 +3290,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42" t="str">
+      <c r="B2" s="133" t="str">
         <f>'Listado Objetos de Dominio'!$A$6</f>
         <v>Oferta</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="str">
+      <c r="B3" s="135" t="str">
         <f>'Listado Objetos de Dominio'!$B$6</f>
         <v>objeto de dominio que contiene la informacinde las ofertas que tienen los servicios que ofrece el spa</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="136"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="125"/>
       <c r="D4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="111"/>
+      <c r="G4" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="128"/>
       <c r="I4" s="12" t="s">
         <v>14</v>
       </c>
@@ -3377,52 +3377,52 @@
       <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="225" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="35" t="s">
+      <c r="F5" s="111"/>
+      <c r="G5" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="38" t="s">
+      <c r="H5" s="126"/>
+      <c r="I5" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="225"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="31"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
@@ -3435,336 +3435,385 @@
       <c r="H6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="224"/>
+      <c r="M6" s="225"/>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="179" t="s">
+      <c r="A7" s="219" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="D7" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="H7" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="220"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="211" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="213" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="220"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="215" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="221"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="210"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="210"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="216"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="180" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80" t="s">
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="116"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" s="181" t="s">
+    </row>
+    <row r="13" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="116"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="217" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="183" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="184" t="s">
+    <row r="14" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="117"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="218"/>
+    </row>
+    <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="201" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="204" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="207" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="204" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="201"/>
+      <c r="L15" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="181" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="182"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="187" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="188"/>
-      <c r="B10" s="189"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="192" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="193" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="194"/>
-    </row>
-    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="53" t="s">
+      <c r="M15" s="61" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="97" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="98"/>
-    </row>
-    <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="195" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="196" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="197" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="196" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="195"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="198" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="199" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="195"/>
-      <c r="J15" s="195" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="195"/>
-      <c r="L15" s="200" t="s">
-        <v>100</v>
-      </c>
-      <c r="M15" s="201" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="202"/>
-      <c r="B16" s="203"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="203"/>
+      <c r="B16" s="205"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="205"/>
       <c r="E16" s="202"/>
       <c r="F16" s="202"/>
-      <c r="G16" s="200" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="205" t="s">
-        <v>98</v>
+      <c r="G16" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>96</v>
       </c>
       <c r="I16" s="202"/>
       <c r="J16" s="202"/>
       <c r="K16" s="202"/>
-      <c r="L16" s="195" t="s">
+      <c r="L16" s="201" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="M16" s="206" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="207"/>
-      <c r="B17" s="208"/>
+      <c r="A17" s="203"/>
+      <c r="B17" s="206"/>
       <c r="C17" s="209"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="198" t="s">
+      <c r="D17" s="206"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="203"/>
+      <c r="J17" s="203"/>
+      <c r="K17" s="203"/>
+      <c r="L17" s="203"/>
+      <c r="M17" s="189"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="190" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="193" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="210" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="207"/>
-      <c r="J17" s="207"/>
-      <c r="K17" s="207"/>
-      <c r="L17" s="207"/>
-      <c r="M17" s="211"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="212" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="213" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="214" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="212" t="s">
+      <c r="D18" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212" t="s">
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="196" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="190"/>
+      <c r="J18" s="190" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="214" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="212"/>
-      <c r="J18" s="212" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="212"/>
-      <c r="L18" s="215" t="s">
-        <v>100</v>
-      </c>
-      <c r="M18" s="216" t="s">
-        <v>92</v>
+      <c r="K18" s="190"/>
+      <c r="L18" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="199" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="217"/>
-      <c r="B19" s="218"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="217"/>
-      <c r="K19" s="217"/>
-      <c r="L19" s="215" t="s">
+      <c r="A19" s="191"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="M19" s="200"/>
+    </row>
+    <row r="20" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="192"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="192"/>
+      <c r="K20" s="192"/>
+      <c r="L20" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" s="66" t="s">
         <v>101</v>
-      </c>
-      <c r="M19" s="220"/>
-    </row>
-    <row r="20" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="221"/>
-      <c r="B20" s="222"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="221"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="221"/>
-      <c r="H20" s="223"/>
-      <c r="I20" s="221"/>
-      <c r="J20" s="221"/>
-      <c r="K20" s="221"/>
-      <c r="L20" s="224" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="225" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
@@ -3781,55 +3830,6 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D411DE6F-B6AA-4877-8454-AEC23893A3C7}"/>
@@ -3842,9 +3842,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3992,27 +3995,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4036,9 +4027,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SpaOnline/EventStorming/Servicios-Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Servicios-Event Storming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68709EE8-861D-473D-A6E4-3953619B42F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5443F51-94CC-47DE-886F-67575C4B911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -18,9 +18,15 @@
     <sheet name="Tipo Servicio" sheetId="66" r:id="rId3"/>
     <sheet name="Servicio" sheetId="24" r:id="rId4"/>
     <sheet name="Oferta" sheetId="68" r:id="rId5"/>
+    <sheet name="Estado" sheetId="69" r:id="rId6"/>
+    <sheet name="Tarifa" sheetId="70" r:id="rId7"/>
+    <sheet name="Evento" sheetId="71" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$3:$B$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$3:$B$3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -78,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="129">
   <si>
     <t>Descripción</t>
   </si>
@@ -182,15 +188,6 @@
     <t>Contexto que contiene toda la informacion de los servicios y ofertas del spa</t>
   </si>
   <si>
-    <t>objeto de dominio que contiene la informacion de los tipos de servicio que tiene el spa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objeto de dominio que contiene la informacion de los servicios que ofrece el spa. </t>
-  </si>
-  <si>
-    <t>objeto de dominio que contiene la informacinde las ofertas que tienen los servicios que ofrece el spa</t>
-  </si>
-  <si>
     <t>Administrador General</t>
   </si>
   <si>
@@ -435,6 +432,45 @@
   </si>
   <si>
     <t>No debe existir otra Oferta con el mismo servicio y descuento</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene información detallada sobre los servicios específicos ofrecidos por el spa</t>
+  </si>
+  <si>
+    <t>TipoServicio</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene información sobre los tipos de servicios ofrecidos por el spa, como masajes, tratamientos faciales, pedicura.</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene información sobre las ofertas especiales asociadas a los servicios ofrecidos por el spa</t>
+  </si>
+  <si>
+    <t>Tarifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto de dominio que contiene información sobre los valores de los servicios </t>
+  </si>
+  <si>
+    <t>Notificacion</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que hace el consumo a tercero que notifica los eventos</t>
+  </si>
+  <si>
+    <t>Referenciado</t>
+  </si>
+  <si>
+    <t>Notificaciones</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion sobre los eventos que estan asociados a las ofertas</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion del estado de la tarifa asociada a los sevicios</t>
   </si>
 </sst>
 </file>
@@ -928,18 +964,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -973,20 +1003,11 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1000,9 +1021,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1138,6 +1156,171 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,6 +1329,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1153,197 +1354,152 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1351,142 +1507,79 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1528,80 +1621,35 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1685,10 +1733,43 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Flujo de eventos en el tiempo"/>
+      <sheetName val="Listado Objetos de Dominio"/>
+      <sheetName val="Objeto Dominio 1"/>
+      <sheetName val="Objeto Dominio 2"/>
+      <sheetName val="Objeto Dominio N"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Objeto Dominio 1</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Descripción en términos del negocio del objeto de dominio 1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1726,7 +1807,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1832,7 +1913,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1974,7 +2055,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2005,11 +2086,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,83 +2098,139 @@
     <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="20" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="226" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="227" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="229" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="20" t="s">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="226" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="227" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="229" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="226" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="227" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="229" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="226" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="227" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="228" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="229" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="226" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="227" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="228" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="229" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="226" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="227" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="228" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="229" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="226" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="227" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="228" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="229" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2103,9 +2240,13 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A4" location="'Objeto Dominio 1'!A1" display="Objeto Dominio 1" xr:uid="{78FD4B04-C4A6-4442-9F4A-8F86F773C6D4}"/>
-    <hyperlink ref="A5" location="'Objeto Dominio 2'!A1" display="Objeto Dominio 2" xr:uid="{02C9F19B-EE12-42DD-8827-5C5B317B717F}"/>
-    <hyperlink ref="A6" location="'Objeto Dominio N'!A1" display="Objeto Dominio N" xr:uid="{7E61E3F0-0C27-49BA-8A71-784A949CFF1B}"/>
+    <hyperlink ref="A4" location="Servicio!A1" display="Servicio" xr:uid="{95E3B6C5-7B8B-43FE-B4A0-D1228B9BD23D}"/>
+    <hyperlink ref="A5" location="TipoServicio!A1" display="TipoServicio" xr:uid="{E122AFBB-2938-4A92-A9F7-1F6F882813BB}"/>
+    <hyperlink ref="A7" location="Tarifa!A1" display="Tarifa" xr:uid="{FD988833-A71A-4203-B2F4-DB4E0EB774B7}"/>
+    <hyperlink ref="A6" location="Oferta!A1" display="Oferta" xr:uid="{D039EAE2-703C-4FB6-BB6C-44186D1E24E7}"/>
+    <hyperlink ref="A8" location="Notificaciones!A1" display="Notificacion" xr:uid="{9CD00A03-0667-41F2-BF0E-82A0FC071B0D}"/>
+    <hyperlink ref="A9" location="Evento!A1" display="Evento" xr:uid="{5265894D-0F38-44AE-8E0D-FCD45E9DD36A}"/>
+    <hyperlink ref="A10" location="Estado!A1" display="Estado" xr:uid="{4C6DE72A-0BE6-4CB2-9CD2-1B4449D1D535}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2117,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="I14" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:M19"/>
+    <sheetView topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2145,486 +2286,484 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="133" t="str">
-        <f>'Listado Objetos de Dominio'!$A$4</f>
-        <v>Tipo Servicio</v>
-      </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="5"/>
+      <c r="B2" s="75" t="e">
+        <f>'Listado Objetos de Dominio'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="135" t="str">
-        <f>'Listado Objetos de Dominio'!$B$4</f>
-        <v>objeto de dominio que contiene la informacion de los tipos de servicio que tiene el spa.</v>
-      </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="6"/>
+      <c r="B3" s="77" t="e">
+        <f>'Listado Objetos de Dominio'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="128" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="131" t="s">
+      <c r="L4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="132" t="s">
+      <c r="M4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="126" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="129" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="130" t="s">
+      <c r="J5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="127" t="s">
+      <c r="K5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="131"/>
-      <c r="M5" s="132"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="129"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="132"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="74"/>
     </row>
     <row r="7" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="118" t="s">
+      <c r="I7" s="80"/>
+      <c r="J7" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="84"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="H8" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="85"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="26" t="s">
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="M10" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="102"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="107" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="102"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="108"/>
+    </row>
+    <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="112" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="109"/>
+      <c r="L14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="110"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95" t="s">
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95" t="s">
+    </row>
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="111"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="119"/>
+    </row>
+    <row r="17" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="107" t="s">
+      <c r="C17" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="123" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="120"/>
+      <c r="L17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="129" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="121"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="109" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104" t="s">
+      <c r="M18" s="130"/>
+    </row>
+    <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="122"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="83"/>
-    </row>
-    <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="84"/>
-      <c r="L14" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="93" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="94"/>
-    </row>
-    <row r="17" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="71"/>
-      <c r="L17" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="74" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="75"/>
-    </row>
-    <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19" s="38" t="s">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="D5:D6"/>
+  <mergeCells count="66">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="L7:L9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
@@ -2641,30 +2780,30 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2708,518 +2847,493 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="133" t="str">
-        <f>'Listado Objetos de Dominio'!$A$5</f>
-        <v>Servicio</v>
-      </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="5"/>
+      <c r="B2" s="75" t="e">
+        <f>'Listado Objetos de Dominio'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="135" t="str">
-        <f>'Listado Objetos de Dominio'!$B$5</f>
-        <v xml:space="preserve">objeto de dominio que contiene la informacion de los servicios que ofrece el spa. </v>
-      </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="6"/>
+      <c r="B3" s="77" t="e">
+        <f>'Listado Objetos de Dominio'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="128" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="131" t="s">
+      <c r="L4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="132" t="s">
+      <c r="M4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="126" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="129" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="130" t="s">
+      <c r="J5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="127" t="s">
+      <c r="K5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="131"/>
-      <c r="M5" s="132"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="129"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="132"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="74"/>
     </row>
     <row r="7" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="179" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="182" t="s">
+      <c r="A7" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="185" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="176" t="s">
+      <c r="I7" s="140"/>
+      <c r="J7" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="132"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="132"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="147" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="133"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="148"/>
+    </row>
+    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="152" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="155" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="39" t="s">
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="155" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176" t="s">
+      <c r="K11" s="149"/>
+      <c r="L11" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="153"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="153"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="158" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="154"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="159"/>
+    </row>
+    <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="160" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="163" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="166" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="163" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="160"/>
+      <c r="L15" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="161"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="160" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176" t="s">
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="162"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="170"/>
+    </row>
+    <row r="18" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="171" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="180"/>
-      <c r="B8" s="183"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="170" t="s">
+      <c r="C18" s="177" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="171" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="174" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="171"/>
+      <c r="L18" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="172" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="177"/>
-      <c r="M8" s="40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="180"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="177"/>
-      <c r="M9" s="174" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="181"/>
-      <c r="B10" s="184"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="41" t="s">
+      <c r="M18" s="180" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="175"/>
-    </row>
-    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="167" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="164" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="148" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="164" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="148"/>
-      <c r="L11" s="148" t="s">
+    </row>
+    <row r="19" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="172"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="181"/>
+    </row>
+    <row r="20" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="173"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="47" t="s">
         <v>71</v>
-      </c>
-      <c r="M11" s="44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="168"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="149"/>
-      <c r="M12" s="44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="168"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="149"/>
-      <c r="M13" s="151" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="169"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="152"/>
-    </row>
-    <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="153" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="156" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="159" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153" t="s">
-        <v>87</v>
-      </c>
-      <c r="K15" s="153"/>
-      <c r="L15" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
-      <c r="B16" s="157"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="153" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" s="162" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="163"/>
-    </row>
-    <row r="18" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="142" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="137" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="142" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="137"/>
-      <c r="L18" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="140" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="M19" s="141"/>
-    </row>
-    <row r="20" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="139"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20" s="53" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="L11:L14"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="A15:A17"/>
@@ -3236,18 +3350,43 @@
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I14"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -3262,7 +3401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -3290,481 +3429,530 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="133" t="str">
-        <f>'Listado Objetos de Dominio'!$A$6</f>
-        <v>Oferta</v>
-      </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="5"/>
+      <c r="B2" s="75" t="e">
+        <f>'Listado Objetos de Dominio'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="135" t="str">
-        <f>'Listado Objetos de Dominio'!$B$6</f>
-        <v>objeto de dominio que contiene la informacinde las ofertas que tienen los servicios que ofrece el spa</v>
-      </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="6"/>
+      <c r="B3" s="77" t="e">
+        <f>'Listado Objetos de Dominio'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="128" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="224" t="s">
+      <c r="L4" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="225" t="s">
+      <c r="M4" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="126" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="129" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="130" t="s">
+      <c r="J5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="127" t="s">
+      <c r="K5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="224"/>
-      <c r="M5" s="225"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="183"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="129"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="224"/>
-      <c r="M6" s="225"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="183"/>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="219" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="87" t="s">
+      <c r="A7" s="184" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="185"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="190" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="H8" s="192" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="185"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="194" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="186"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="H10" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="195"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="33" t="s">
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="87"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="196" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="197"/>
+    </row>
+    <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="198" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="201" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="204" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="201" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="198"/>
+      <c r="L15" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="199"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84" t="s">
+      <c r="I16" s="199"/>
+      <c r="J16" s="199"/>
+      <c r="K16" s="199"/>
+      <c r="L16" s="198" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="207" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84" t="s">
+    </row>
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="200"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="208"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="209" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="212" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="220"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="211" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="213" t="s">
+      <c r="C18" s="215" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="209" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="215" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="209"/>
+      <c r="L18" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" s="218" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="210"/>
+      <c r="B19" s="213"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="216"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="210"/>
+      <c r="K19" s="210"/>
+      <c r="L19" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="55" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="220"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="215" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="221"/>
-      <c r="B10" s="222"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="210"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="216"/>
-    </row>
-    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="115" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="118" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95" t="s">
+      <c r="M19" s="219"/>
+    </row>
+    <row r="20" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="211"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="217"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="211"/>
+      <c r="K20" s="211"/>
+      <c r="L20" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="60" t="s">
         <v>98</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="217" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="218"/>
-    </row>
-    <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="201" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="204" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="207" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="204" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="201"/>
-      <c r="J15" s="201" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="201"/>
-      <c r="L15" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="M15" s="61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="202"/>
-      <c r="B16" s="205"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="202"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="202"/>
-      <c r="L16" s="201" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" s="188" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="203"/>
-      <c r="B17" s="206"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="203"/>
-      <c r="J17" s="203"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="203"/>
-      <c r="M17" s="189"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="190" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="193" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="196" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="190" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="196" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="190"/>
-      <c r="J18" s="190" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="190"/>
-      <c r="L18" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" s="199" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="191"/>
-      <c r="B19" s="194"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="191"/>
-      <c r="K19" s="191"/>
-      <c r="L19" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="200"/>
-    </row>
-    <row r="20" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="192"/>
-      <c r="B20" s="195"/>
-      <c r="C20" s="198"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="192"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" s="66" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -3781,55 +3969,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D411DE6F-B6AA-4877-8454-AEC23893A3C7}"/>
@@ -3841,13 +3980,763 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DA9B45-13EC-414E-B855-8DC5CC78E8E7}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="75" t="str">
+        <f>'Listado Objetos de Dominio'!A10</f>
+        <v>Estado</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="77" t="str">
+        <f>'Listado Objetos de Dominio'!B10</f>
+        <v>Objeto de dominio que contiene la informacion del estado de la tarifa asociada a los sevicios</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="79"/>
+      <c r="G4" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="70"/>
+      <c r="I4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="79"/>
+      <c r="G5" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="68"/>
+      <c r="I5" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{E9A8B856-90A6-4B8A-B936-E67475BADDD0}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{225D411B-3653-4B6B-96CB-FB372758B908}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F0DE3C-52E8-4B44-95CA-36211D6EC216}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="75" t="str">
+        <f>'[1]Listado Objetos de Dominio'!$A$4</f>
+        <v>Objeto Dominio 1</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="77" t="str">
+        <f>'[1]Listado Objetos de Dominio'!$B$4</f>
+        <v>Descripción en términos del negocio del objeto de dominio 1</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="79"/>
+      <c r="G4" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="70"/>
+      <c r="I4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="79"/>
+      <c r="G5" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="68"/>
+      <c r="I5" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="74"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="220"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="221"/>
+      <c r="L7" s="221"/>
+      <c r="M7" s="222"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="220"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221"/>
+      <c r="K8" s="221"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="222"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="220"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
+      <c r="K9" s="221"/>
+      <c r="L9" s="221"/>
+      <c r="M9" s="222"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="223"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="225"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{FD666A64-A631-4F26-B363-B1931927FDB8}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{621980C3-164C-45EE-B953-1BE94EBCC42D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F3AF80-7EC6-45B5-B8C2-6B1DE94026C1}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="75" t="str">
+        <f>'[1]Listado Objetos de Dominio'!$A$4</f>
+        <v>Objeto Dominio 1</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="77" t="str">
+        <f>'[1]Listado Objetos de Dominio'!$B$4</f>
+        <v>Descripción en términos del negocio del objeto de dominio 1</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="79"/>
+      <c r="G4" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="70"/>
+      <c r="I4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="79"/>
+      <c r="G5" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="68"/>
+      <c r="I5" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="74"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="220"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="221"/>
+      <c r="L7" s="221"/>
+      <c r="M7" s="222"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="220"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221"/>
+      <c r="K8" s="221"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="222"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="220"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
+      <c r="K9" s="221"/>
+      <c r="L9" s="221"/>
+      <c r="M9" s="222"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="223"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="225"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{04057ED9-23BA-42E0-87DC-6AB2F6FF554F}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{85BCB1BE-B3B5-4651-8EE3-C2C3287793E8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3995,15 +4884,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4027,18 +4928,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SpaOnline/EventStorming/Servicios-Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Servicios-Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF3033F-4066-43B9-99BC-0D6F5FAC0834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEB07A7-51FF-43FE-A9D1-877B815F6B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="6" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -1505,6 +1505,93 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1517,11 +1604,164 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1562,167 +1802,155 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1730,142 +1958,82 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,159 +2075,78 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2079,239 +2166,152 @@
     <xf numFmtId="0" fontId="9" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2736,21 +2736,21 @@
       <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2916,84 +2916,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="131" t="e">
+      <c r="B2" s="108" t="e">
         <f>'Listado Objetos de Dominio'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="133" t="e">
+      <c r="B3" s="110" t="e">
         <f>'Listado Objetos de Dominio'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="126" t="s">
+      <c r="F4" s="112"/>
+      <c r="G4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="126"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -3003,52 +3003,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="130" t="s">
+      <c r="M4" s="107" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="124" t="s">
+      <c r="F5" s="112"/>
+      <c r="G5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="127" t="s">
+      <c r="H5" s="101"/>
+      <c r="I5" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="128" t="s">
+      <c r="J5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="125" t="s">
+      <c r="K5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="129"/>
-      <c r="M5" s="130"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="120"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -3061,39 +3061,39 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="130"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="107"/>
     </row>
     <row r="7" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95" t="s">
+      <c r="I7" s="113"/>
+      <c r="J7" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95" t="s">
+      <c r="K7" s="113"/>
+      <c r="L7" s="113" t="s">
         <v>42</v>
       </c>
       <c r="M7" s="22" t="s">
@@ -3101,70 +3101,70 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="105" t="s">
+      <c r="A8" s="117"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="107" t="s">
+      <c r="H8" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
       <c r="M8" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="112"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
       <c r="M9" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69" t="s">
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="101" t="s">
+      <c r="H10" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69" t="s">
+      <c r="I10" s="133"/>
+      <c r="J10" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69" t="s">
+      <c r="K10" s="133"/>
+      <c r="L10" s="133" t="s">
         <v>41</v>
       </c>
       <c r="M10" s="23" t="s">
@@ -3172,82 +3172,82 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
       <c r="M11" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="82" t="s">
+      <c r="B12" s="128"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="162" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="83"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="163"/>
     </row>
     <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
       <c r="G14" s="24" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84" t="s">
+      <c r="I14" s="140"/>
+      <c r="J14" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="84"/>
+      <c r="K14" s="140"/>
       <c r="L14" s="27" t="s">
         <v>57</v>
       </c>
@@ -3256,109 +3256,109 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
       <c r="G15" s="27" t="s">
         <v>39</v>
       </c>
       <c r="H15" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="84" t="s">
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="93" t="s">
+      <c r="M15" s="143" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
+      <c r="A16" s="142"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
       <c r="G16" s="24" t="s">
         <v>54</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="94"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="144"/>
     </row>
     <row r="17" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71" t="s">
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="76" t="s">
+      <c r="H17" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71" t="s">
+      <c r="I17" s="151"/>
+      <c r="J17" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="71"/>
+      <c r="K17" s="151"/>
       <c r="L17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="74" t="s">
+      <c r="M17" s="154" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
       <c r="L18" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="75"/>
+      <c r="M18" s="155"/>
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
+      <c r="A19" s="153"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
       <c r="L19" s="31" t="s">
         <v>56</v>
       </c>
@@ -3368,30 +3368,32 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="J14:J16"/>
     <mergeCell ref="L7:L9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
@@ -3408,32 +3410,30 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -3448,9 +3448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:M20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,84 +3478,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="108" t="str">
         <f>'Listado Objetos de Dominio'!A4</f>
         <v>Servicio</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="133" t="str">
+      <c r="B3" s="110" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene información detallada sobre los servicios específicos ofrecidos por el spa</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="126" t="s">
+      <c r="F4" s="112"/>
+      <c r="G4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="126"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -3565,52 +3565,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="130" t="s">
+      <c r="M4" s="107" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="124" t="s">
+      <c r="F5" s="112"/>
+      <c r="G5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="127" t="s">
+      <c r="H5" s="101"/>
+      <c r="I5" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="128" t="s">
+      <c r="J5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="125" t="s">
+      <c r="K5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="129"/>
-      <c r="M5" s="130"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="120"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -3623,29 +3623,29 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="130"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="107"/>
     </row>
     <row r="7" spans="1:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="177" t="s">
+      <c r="A7" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="183" t="s">
+      <c r="C7" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="174" t="s">
+      <c r="D7" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="174" t="s">
+      <c r="E7" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="180" t="s">
+      <c r="F7" s="167" t="s">
         <v>113</v>
       </c>
       <c r="G7" s="37" t="s">
@@ -3654,12 +3654,12 @@
       <c r="H7" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174" t="s">
+      <c r="I7" s="176"/>
+      <c r="J7" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174" t="s">
+      <c r="K7" s="176"/>
+      <c r="L7" s="176" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="34" t="s">
@@ -3667,93 +3667,93 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="178"/>
-      <c r="B8" s="181"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="168" t="s">
+      <c r="A8" s="171"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="170" t="s">
+      <c r="H8" s="181" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
       <c r="M8" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="172" t="s">
+      <c r="A9" s="171"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="183" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="179"/>
-      <c r="B10" s="182"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="182"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="169"/>
       <c r="G10" s="36" t="s">
         <v>70</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="173"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="184"/>
     </row>
     <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="303" t="s">
+      <c r="A11" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="186" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="E11" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="165" t="s">
+      <c r="F11" s="186" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="146" t="s">
+      <c r="G11" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="162" t="s">
+      <c r="H11" s="189" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146" t="s">
+      <c r="I11" s="166"/>
+      <c r="J11" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146" t="s">
+      <c r="K11" s="166"/>
+      <c r="L11" s="166" t="s">
         <v>65</v>
       </c>
       <c r="M11" s="38" t="s">
@@ -3761,73 +3761,73 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
+      <c r="A12" s="165"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="185"/>
       <c r="M12" s="38" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="166"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="149" t="s">
+      <c r="B13" s="187"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="185"/>
+      <c r="K13" s="185"/>
+      <c r="L13" s="185"/>
+      <c r="M13" s="192" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="148"/>
-      <c r="B14" s="167"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="150"/>
+      <c r="A14" s="165"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="193"/>
     </row>
     <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="154" t="s">
+      <c r="B15" s="197" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="154" t="s">
+      <c r="D15" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="151" t="s">
+      <c r="E15" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="154" t="s">
+      <c r="F15" s="197" t="s">
         <v>113</v>
       </c>
       <c r="G15" s="39" t="s">
@@ -3836,11 +3836,11 @@
       <c r="H15" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151" t="s">
+      <c r="I15" s="194"/>
+      <c r="J15" s="194" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="151"/>
+      <c r="K15" s="194"/>
       <c r="L15" s="41" t="s">
         <v>65</v>
       </c>
@@ -3848,114 +3848,114 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="155"/>
+    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="195"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="198"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="198"/>
       <c r="G16" s="41" t="s">
         <v>64</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="151" t="s">
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="160" t="s">
+      <c r="M16" s="203" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="153"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="156"/>
+      <c r="A17" s="196"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="199"/>
       <c r="G17" s="39" t="s">
         <v>78</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="161"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="196"/>
+      <c r="L17" s="196"/>
+      <c r="M17" s="204"/>
     </row>
     <row r="18" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="211" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="135" t="s">
+      <c r="D18" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="140" t="s">
+      <c r="F18" s="208" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="135" t="s">
+      <c r="G18" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="140" t="s">
+      <c r="H18" s="208" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135" t="s">
+      <c r="I18" s="205"/>
+      <c r="J18" s="205" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="135"/>
+      <c r="K18" s="205"/>
       <c r="L18" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="138" t="s">
+      <c r="M18" s="214" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="136"/>
+      <c r="A19" s="206"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
       <c r="L19" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="M19" s="139"/>
+      <c r="M19" s="215"/>
     </row>
     <row r="20" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="137"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
+      <c r="A20" s="207"/>
+      <c r="B20" s="210"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="207"/>
+      <c r="K20" s="207"/>
       <c r="L20" s="46" t="s">
         <v>80</v>
       </c>
@@ -3965,6 +3965,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A1:N1"/>
@@ -3981,57 +4032,6 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="F7:F10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -4075,84 +4075,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="131" t="e">
+      <c r="B2" s="108" t="e">
         <f>'Listado Objetos de Dominio'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="133" t="e">
+      <c r="B3" s="110" t="e">
         <f>'Listado Objetos de Dominio'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="126" t="s">
+      <c r="F4" s="112"/>
+      <c r="G4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="126"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -4162,52 +4162,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="222" t="s">
+      <c r="L4" s="217" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="223" t="s">
+      <c r="M4" s="218" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="124" t="s">
+      <c r="F5" s="112"/>
+      <c r="G5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="127" t="s">
+      <c r="H5" s="101"/>
+      <c r="I5" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="128" t="s">
+      <c r="J5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="125" t="s">
+      <c r="K5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="222"/>
-      <c r="M5" s="223"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="218"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="120"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -4220,29 +4220,29 @@
       <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="223"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="217"/>
+      <c r="M6" s="218"/>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="217" t="s">
+      <c r="A7" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="148" t="s">
         <v>111</v>
       </c>
       <c r="G7" s="27" t="s">
@@ -4251,12 +4251,12 @@
       <c r="H7" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84" t="s">
+      <c r="I7" s="140"/>
+      <c r="J7" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84" t="s">
+      <c r="K7" s="140"/>
+      <c r="L7" s="140" t="s">
         <v>92</v>
       </c>
       <c r="M7" s="49" t="s">
@@ -4264,93 +4264,93 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="218"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="209" t="s">
+      <c r="A8" s="220"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="225" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="211" t="s">
+      <c r="H8" s="227" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
       <c r="M8" s="49" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="218"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="213" t="s">
+      <c r="A9" s="220"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="226"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="229" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="219"/>
-      <c r="B10" s="220"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="220"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="222"/>
       <c r="G10" s="50" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="208"/>
-      <c r="J10" s="208"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="214"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="230"/>
     </row>
     <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="233" t="s">
+      <c r="A11" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="95" t="s">
+      <c r="G11" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="116" t="s">
+      <c r="H11" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95" t="s">
+      <c r="I11" s="113"/>
+      <c r="J11" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95" t="s">
+      <c r="K11" s="113"/>
+      <c r="L11" s="113" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="20" t="s">
@@ -4358,73 +4358,73 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
       <c r="M12" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="215" t="s">
+      <c r="B13" s="120"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="231" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="216"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="232"/>
     </row>
     <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="199" t="s">
+      <c r="A15" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="202" t="s">
+      <c r="B15" s="236" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="205" t="s">
+      <c r="C15" s="239" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="202" t="s">
+      <c r="D15" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="199" t="s">
+      <c r="E15" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="202" t="s">
+      <c r="F15" s="236" t="s">
         <v>111</v>
       </c>
       <c r="G15" s="52" t="s">
@@ -4433,11 +4433,11 @@
       <c r="H15" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="199"/>
-      <c r="J15" s="199" t="s">
+      <c r="I15" s="233"/>
+      <c r="J15" s="233" t="s">
         <v>104</v>
       </c>
-      <c r="K15" s="199"/>
+      <c r="K15" s="233"/>
       <c r="L15" s="54" t="s">
         <v>91</v>
       </c>
@@ -4446,113 +4446,113 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="200"/>
-      <c r="B16" s="203"/>
-      <c r="C16" s="206"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="203"/>
+      <c r="A16" s="234"/>
+      <c r="B16" s="237"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="237"/>
       <c r="G16" s="54" t="s">
         <v>87</v>
       </c>
       <c r="H16" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="200"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="200"/>
-      <c r="L16" s="199" t="s">
+      <c r="I16" s="234"/>
+      <c r="J16" s="234"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="233" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="186" t="s">
+      <c r="M16" s="242" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="201"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="207"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="204"/>
+      <c r="A17" s="235"/>
+      <c r="B17" s="238"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="238"/>
       <c r="G17" s="52" t="s">
         <v>103</v>
       </c>
       <c r="H17" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="201"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="187"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="235"/>
+      <c r="K17" s="235"/>
+      <c r="L17" s="235"/>
+      <c r="M17" s="243"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="188" t="s">
+      <c r="A18" s="244" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="247" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="250" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="188" t="s">
+      <c r="D18" s="244" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="188" t="s">
+      <c r="E18" s="244" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="191" t="s">
+      <c r="F18" s="247" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="188" t="s">
+      <c r="G18" s="244" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="194" t="s">
+      <c r="H18" s="250" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="188"/>
-      <c r="J18" s="188" t="s">
+      <c r="I18" s="244"/>
+      <c r="J18" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="188"/>
+      <c r="K18" s="244"/>
       <c r="L18" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="197" t="s">
+      <c r="M18" s="253" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="189"/>
-      <c r="B19" s="192"/>
-      <c r="C19" s="195"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="189"/>
-      <c r="J19" s="189"/>
-      <c r="K19" s="189"/>
+      <c r="A19" s="245"/>
+      <c r="B19" s="248"/>
+      <c r="C19" s="251"/>
+      <c r="D19" s="245"/>
+      <c r="E19" s="245"/>
+      <c r="F19" s="248"/>
+      <c r="G19" s="245"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="245"/>
+      <c r="J19" s="245"/>
+      <c r="K19" s="245"/>
       <c r="L19" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="198"/>
+      <c r="M19" s="254"/>
     </row>
     <row r="20" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="190"/>
-      <c r="B20" s="193"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="190"/>
+      <c r="A20" s="246"/>
+      <c r="B20" s="249"/>
+      <c r="C20" s="252"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="252"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="246"/>
+      <c r="K20" s="246"/>
       <c r="L20" s="59" t="s">
         <v>104</v>
       </c>
@@ -4562,6 +4562,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A1:N1"/>
@@ -4578,57 +4629,6 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D411DE6F-B6AA-4877-8454-AEC23893A3C7}"/>
@@ -4672,84 +4672,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="108" t="str">
         <f>'Listado Objetos de Dominio'!A10</f>
         <v>Estado</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="133" t="str">
+      <c r="B3" s="110" t="str">
         <f>'Listado Objetos de Dominio'!B10</f>
         <v>Objeto de dominio que contiene la informacion del estado de la tarifa asociada a los sevicios</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="126" t="s">
+      <c r="F4" s="112"/>
+      <c r="G4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="126"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -4759,52 +4759,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="130" t="s">
+      <c r="M4" s="107" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="124" t="s">
+      <c r="F5" s="112"/>
+      <c r="G5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="127" t="s">
+      <c r="H5" s="101"/>
+      <c r="I5" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="128" t="s">
+      <c r="J5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="125" t="s">
+      <c r="K5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="129"/>
-      <c r="M5" s="130"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="120"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -4817,84 +4817,74 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="130"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="107"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="225" t="s">
+      <c r="B7" s="260" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="225" t="s">
+      <c r="C7" s="260" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="224" t="s">
+      <c r="D7" s="261" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="226"/>
-      <c r="F7" s="226"/>
-      <c r="G7" s="226" t="s">
+      <c r="E7" s="255"/>
+      <c r="F7" s="255"/>
+      <c r="G7" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="225" t="s">
+      <c r="H7" s="260" t="s">
         <v>124</v>
       </c>
-      <c r="I7" s="226"/>
-      <c r="J7" s="224" t="s">
+      <c r="I7" s="255"/>
+      <c r="J7" s="261" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="226"/>
-      <c r="L7" s="227"/>
-      <c r="M7" s="227"/>
+      <c r="K7" s="255"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="232"/>
-      <c r="B8" s="229"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="229"/>
-      <c r="L8" s="227"/>
-      <c r="M8" s="227"/>
+      <c r="A8" s="258"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="256"/>
+      <c r="K8" s="256"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="228"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="230"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="230"/>
-      <c r="G9" s="230"/>
-      <c r="H9" s="230"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="230"/>
-      <c r="K9" s="230"/>
-      <c r="L9" s="227"/>
-      <c r="M9" s="227"/>
+      <c r="A9" s="259"/>
+      <c r="B9" s="257"/>
+      <c r="C9" s="257"/>
+      <c r="D9" s="257"/>
+      <c r="E9" s="257"/>
+      <c r="F9" s="257"/>
+      <c r="G9" s="257"/>
+      <c r="H9" s="257"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="257"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -4911,7 +4901,17 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{E9A8B856-90A6-4B8A-B936-E67475BADDD0}"/>
@@ -4925,8 +4925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F0DE3C-52E8-4B44-95CA-36211D6EC216}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4954,84 +4954,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="108" t="str">
         <f>'Listado Objetos de Dominio'!A7</f>
         <v>Tarifa</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="133" t="str">
+      <c r="B3" s="110" t="str">
         <f>'Listado Objetos de Dominio'!B7</f>
         <v xml:space="preserve">Objeto de dominio que contiene información sobre los valores de los servicios </v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="126" t="s">
+      <c r="F4" s="112"/>
+      <c r="G4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="126"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -5041,52 +5041,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="130" t="s">
+      <c r="M4" s="107" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="124" t="s">
+      <c r="F5" s="112"/>
+      <c r="G5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="127" t="s">
+      <c r="H5" s="101"/>
+      <c r="I5" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="128" t="s">
+      <c r="J5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="125" t="s">
+      <c r="K5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="129"/>
-      <c r="M5" s="130"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="120"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -5099,286 +5099,250 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="130"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="107"/>
     </row>
     <row r="7" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="271" t="s">
+      <c r="A7" s="268" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="270" t="s">
+      <c r="B7" s="271" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="272" t="s">
+      <c r="C7" s="274" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="276" t="s">
+      <c r="D7" s="277" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="279" t="s">
+      <c r="E7" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="280" t="s">
+      <c r="F7" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="235" t="s">
+      <c r="G7" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="236" t="s">
+      <c r="H7" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="270"/>
-      <c r="J7" s="270" t="s">
+      <c r="I7" s="271"/>
+      <c r="J7" s="271" t="s">
         <v>143</v>
       </c>
-      <c r="K7" s="270"/>
-      <c r="L7" s="234" t="s">
+      <c r="K7" s="271"/>
+      <c r="L7" s="292" t="s">
         <v>145</v>
       </c>
-      <c r="M7" s="235" t="s">
+      <c r="M7" s="67" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="263"/>
-      <c r="B8" s="259"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="277"/>
-      <c r="E8" s="281" t="s">
+      <c r="A8" s="269"/>
+      <c r="B8" s="272"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="278"/>
+      <c r="E8" s="266" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="282" t="s">
+      <c r="F8" s="267" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="270" t="s">
+      <c r="G8" s="271" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="269" t="s">
+      <c r="H8" s="280" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="259"/>
-      <c r="J8" s="259"/>
-      <c r="K8" s="259"/>
-      <c r="L8" s="242"/>
-      <c r="M8" s="244" t="s">
+      <c r="I8" s="272"/>
+      <c r="J8" s="272"/>
+      <c r="K8" s="272"/>
+      <c r="L8" s="293"/>
+      <c r="M8" s="295" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="264"/>
-      <c r="B9" s="260"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="278"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="260"/>
-      <c r="I9" s="260"/>
-      <c r="J9" s="260"/>
-      <c r="K9" s="260"/>
-      <c r="L9" s="243"/>
-      <c r="M9" s="245"/>
+      <c r="A9" s="270"/>
+      <c r="B9" s="273"/>
+      <c r="C9" s="276"/>
+      <c r="D9" s="279"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="273"/>
+      <c r="H9" s="273"/>
+      <c r="I9" s="273"/>
+      <c r="J9" s="273"/>
+      <c r="K9" s="273"/>
+      <c r="L9" s="294"/>
+      <c r="M9" s="296"/>
     </row>
     <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="262" t="s">
+      <c r="A10" s="282" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="261" t="s">
+      <c r="B10" s="281" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="265" t="s">
+      <c r="C10" s="283" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="268" t="s">
+      <c r="D10" s="284" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="283" t="s">
+      <c r="E10" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="284" t="s">
+      <c r="F10" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="237" t="s">
+      <c r="G10" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="238" t="s">
+      <c r="H10" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="261"/>
-      <c r="J10" s="261" t="s">
+      <c r="I10" s="281"/>
+      <c r="J10" s="281" t="s">
         <v>144</v>
       </c>
-      <c r="K10" s="261"/>
-      <c r="L10" s="237" t="s">
+      <c r="K10" s="281"/>
+      <c r="L10" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="M10" s="239" t="s">
+      <c r="M10" s="71" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="263"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="285" t="s">
+      <c r="A11" s="269"/>
+      <c r="B11" s="272"/>
+      <c r="C11" s="275"/>
+      <c r="D11" s="272"/>
+      <c r="E11" s="264" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="286" t="s">
+      <c r="F11" s="265" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="237" t="s">
+      <c r="G11" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="238" t="s">
+      <c r="H11" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="259"/>
-      <c r="J11" s="259"/>
-      <c r="K11" s="259"/>
-      <c r="L11" s="246" t="s">
+      <c r="I11" s="272"/>
+      <c r="J11" s="272"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="297" t="s">
         <v>145</v>
       </c>
-      <c r="M11" s="248" t="s">
+      <c r="M11" s="299" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="264"/>
-      <c r="B12" s="260"/>
-      <c r="C12" s="267"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="285"/>
-      <c r="F12" s="286"/>
-      <c r="G12" s="237" t="s">
+      <c r="A12" s="270"/>
+      <c r="B12" s="273"/>
+      <c r="C12" s="276"/>
+      <c r="D12" s="273"/>
+      <c r="E12" s="264"/>
+      <c r="F12" s="265"/>
+      <c r="G12" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="238" t="s">
+      <c r="H12" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="260"/>
-      <c r="J12" s="260"/>
-      <c r="K12" s="260"/>
-      <c r="L12" s="247"/>
-      <c r="M12" s="249"/>
+      <c r="I12" s="273"/>
+      <c r="J12" s="273"/>
+      <c r="K12" s="273"/>
+      <c r="L12" s="298"/>
+      <c r="M12" s="300"/>
     </row>
     <row r="13" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="275" t="s">
+      <c r="A13" s="262" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="252" t="s">
+      <c r="B13" s="285" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="255" t="s">
+      <c r="C13" s="288" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="252" t="s">
+      <c r="D13" s="285" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="279" t="s">
+      <c r="E13" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="280" t="s">
+      <c r="F13" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="252" t="s">
+      <c r="G13" s="285" t="s">
         <v>155</v>
       </c>
-      <c r="H13" s="258" t="s">
+      <c r="H13" s="291" t="s">
         <v>135</v>
       </c>
-      <c r="I13" s="252"/>
-      <c r="J13" s="252" t="s">
+      <c r="I13" s="285"/>
+      <c r="J13" s="285" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="252"/>
-      <c r="L13" s="250" t="s">
+      <c r="K13" s="285"/>
+      <c r="L13" s="301" t="s">
         <v>143</v>
       </c>
-      <c r="M13" s="241" t="s">
+      <c r="M13" s="73" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="273"/>
-      <c r="B14" s="253"/>
-      <c r="C14" s="256"/>
-      <c r="D14" s="253"/>
-      <c r="E14" s="281" t="s">
+      <c r="A14" s="263"/>
+      <c r="B14" s="286"/>
+      <c r="C14" s="289"/>
+      <c r="D14" s="286"/>
+      <c r="E14" s="266" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="282" t="s">
+      <c r="F14" s="267" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="253"/>
-      <c r="H14" s="253"/>
-      <c r="I14" s="253"/>
-      <c r="J14" s="253"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="274"/>
-      <c r="M14" s="250" t="s">
+      <c r="G14" s="286"/>
+      <c r="H14" s="286"/>
+      <c r="I14" s="286"/>
+      <c r="J14" s="286"/>
+      <c r="K14" s="286"/>
+      <c r="L14" s="303"/>
+      <c r="M14" s="301" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="240" t="s">
+      <c r="A15" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="254"/>
-      <c r="C15" s="257"/>
-      <c r="D15" s="254"/>
-      <c r="E15" s="281"/>
-      <c r="F15" s="282"/>
-      <c r="G15" s="254"/>
-      <c r="H15" s="254"/>
-      <c r="I15" s="254"/>
-      <c r="J15" s="254"/>
-      <c r="K15" s="254"/>
-      <c r="L15" s="251"/>
-      <c r="M15" s="251"/>
+      <c r="B15" s="287"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="287"/>
+      <c r="E15" s="266"/>
+      <c r="F15" s="267"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="287"/>
+      <c r="I15" s="287"/>
+      <c r="J15" s="287"/>
+      <c r="K15" s="287"/>
+      <c r="L15" s="302"/>
+      <c r="M15" s="302"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -5395,7 +5359,43 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{FD666A64-A631-4F26-B363-B1931927FDB8}"/>
@@ -5438,84 +5438,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="108" t="str">
         <f>'Listado Objetos de Dominio'!A9</f>
         <v>Evento</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="133" t="str">
+      <c r="B3" s="110" t="str">
         <f>'Listado Objetos de Dominio'!B9</f>
         <v>Objeto de dominio que contiene la informacion sobre los eventos que estan asociados a las ofertas</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="126" t="s">
+      <c r="F4" s="112"/>
+      <c r="G4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="126"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -5525,52 +5525,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="130" t="s">
+      <c r="M4" s="107" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="124" t="s">
+      <c r="F5" s="112"/>
+      <c r="G5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="127" t="s">
+      <c r="H5" s="101"/>
+      <c r="I5" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="128" t="s">
+      <c r="J5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="125" t="s">
+      <c r="K5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="129"/>
-      <c r="M5" s="130"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="120"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -5583,376 +5583,414 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="130"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="107"/>
     </row>
     <row r="7" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="304" t="s">
+      <c r="A7" s="324" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="305" t="s">
+      <c r="B7" s="304" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="306" t="s">
+      <c r="C7" s="314" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="307" t="s">
+      <c r="D7" s="313" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="339" t="s">
+      <c r="E7" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="305" t="s">
+      <c r="F7" s="304" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="308" t="s">
+      <c r="G7" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="309" t="s">
+      <c r="H7" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="307"/>
-      <c r="J7" s="307" t="s">
+      <c r="I7" s="313"/>
+      <c r="J7" s="313" t="s">
         <v>186</v>
       </c>
-      <c r="K7" s="307"/>
-      <c r="L7" s="307" t="s">
+      <c r="K7" s="313"/>
+      <c r="L7" s="313" t="s">
         <v>185</v>
       </c>
-      <c r="M7" s="310" t="s">
+      <c r="M7" s="83" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="311"/>
-      <c r="B8" s="312"/>
-      <c r="C8" s="313"/>
-      <c r="D8" s="314"/>
-      <c r="E8" s="314" t="s">
+      <c r="A8" s="325"/>
+      <c r="B8" s="305"/>
+      <c r="C8" s="315"/>
+      <c r="D8" s="306"/>
+      <c r="E8" s="306" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="312"/>
-      <c r="G8" s="315" t="s">
+      <c r="F8" s="305"/>
+      <c r="G8" s="320" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="316" t="s">
+      <c r="H8" s="322" t="s">
         <v>178</v>
       </c>
-      <c r="I8" s="314"/>
-      <c r="J8" s="314"/>
-      <c r="K8" s="314"/>
-      <c r="L8" s="314"/>
-      <c r="M8" s="310" t="s">
+      <c r="I8" s="306"/>
+      <c r="J8" s="306"/>
+      <c r="K8" s="306"/>
+      <c r="L8" s="306"/>
+      <c r="M8" s="83" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="311"/>
-      <c r="B9" s="312"/>
-      <c r="C9" s="313"/>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="312" t="s">
+      <c r="A9" s="325"/>
+      <c r="B9" s="305"/>
+      <c r="C9" s="315"/>
+      <c r="D9" s="306"/>
+      <c r="E9" s="306"/>
+      <c r="F9" s="305" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="317"/>
-      <c r="H9" s="318"/>
-      <c r="I9" s="314"/>
-      <c r="J9" s="314"/>
-      <c r="K9" s="314"/>
-      <c r="L9" s="314"/>
-      <c r="M9" s="319" t="s">
+      <c r="G9" s="321"/>
+      <c r="H9" s="323"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="306"/>
+      <c r="K9" s="306"/>
+      <c r="L9" s="306"/>
+      <c r="M9" s="317" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="320"/>
-      <c r="B10" s="321"/>
-      <c r="C10" s="322"/>
-      <c r="D10" s="323"/>
-      <c r="E10" s="323"/>
-      <c r="F10" s="321"/>
-      <c r="G10" s="324" t="s">
+      <c r="A10" s="326"/>
+      <c r="B10" s="308"/>
+      <c r="C10" s="327"/>
+      <c r="D10" s="307"/>
+      <c r="E10" s="307"/>
+      <c r="F10" s="308"/>
+      <c r="G10" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="325" t="s">
+      <c r="H10" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="I10" s="323"/>
-      <c r="J10" s="323"/>
-      <c r="K10" s="323"/>
-      <c r="L10" s="323"/>
-      <c r="M10" s="326"/>
+      <c r="I10" s="307"/>
+      <c r="J10" s="307"/>
+      <c r="K10" s="307"/>
+      <c r="L10" s="307"/>
+      <c r="M10" s="318"/>
     </row>
     <row r="11" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="327" t="s">
+      <c r="A11" s="319" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="305" t="s">
+      <c r="B11" s="304" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="306" t="s">
+      <c r="C11" s="314" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="307" t="s">
+      <c r="D11" s="313" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="339" t="s">
+      <c r="E11" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="305" t="s">
+      <c r="F11" s="304" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="307" t="s">
+      <c r="G11" s="313" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="306" t="s">
+      <c r="H11" s="314" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="307"/>
-      <c r="J11" s="307" t="s">
+      <c r="I11" s="313"/>
+      <c r="J11" s="313" t="s">
         <v>185</v>
       </c>
-      <c r="K11" s="307"/>
-      <c r="L11" s="307" t="s">
+      <c r="K11" s="313"/>
+      <c r="L11" s="313" t="s">
         <v>186</v>
       </c>
-      <c r="M11" s="328" t="s">
+      <c r="M11" s="86" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="329"/>
-      <c r="B12" s="312"/>
-      <c r="C12" s="313"/>
-      <c r="D12" s="314"/>
-      <c r="E12" s="314" t="s">
+      <c r="A12" s="309"/>
+      <c r="B12" s="305"/>
+      <c r="C12" s="315"/>
+      <c r="D12" s="306"/>
+      <c r="E12" s="306" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="312"/>
-      <c r="G12" s="314"/>
-      <c r="H12" s="313"/>
-      <c r="I12" s="314"/>
-      <c r="J12" s="314"/>
-      <c r="K12" s="314"/>
-      <c r="L12" s="314"/>
-      <c r="M12" s="328" t="s">
+      <c r="F12" s="305"/>
+      <c r="G12" s="306"/>
+      <c r="H12" s="315"/>
+      <c r="I12" s="306"/>
+      <c r="J12" s="306"/>
+      <c r="K12" s="306"/>
+      <c r="L12" s="306"/>
+      <c r="M12" s="86" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="307" t="s">
+      <c r="A13" s="313" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="312"/>
-      <c r="C13" s="313"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="312" t="s">
+      <c r="B13" s="305"/>
+      <c r="C13" s="315"/>
+      <c r="D13" s="306"/>
+      <c r="E13" s="306"/>
+      <c r="F13" s="305" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="314"/>
-      <c r="H13" s="313"/>
-      <c r="I13" s="314"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="314"/>
-      <c r="L13" s="314"/>
-      <c r="M13" s="330" t="s">
+      <c r="G13" s="306"/>
+      <c r="H13" s="315"/>
+      <c r="I13" s="306"/>
+      <c r="J13" s="306"/>
+      <c r="K13" s="306"/>
+      <c r="L13" s="306"/>
+      <c r="M13" s="311" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="329"/>
-      <c r="B14" s="331"/>
-      <c r="C14" s="332"/>
-      <c r="D14" s="329"/>
-      <c r="E14" s="323"/>
-      <c r="F14" s="321"/>
-      <c r="G14" s="329"/>
-      <c r="H14" s="332"/>
-      <c r="I14" s="329"/>
-      <c r="J14" s="329"/>
-      <c r="K14" s="329"/>
-      <c r="L14" s="329"/>
-      <c r="M14" s="333"/>
+      <c r="A14" s="309"/>
+      <c r="B14" s="310"/>
+      <c r="C14" s="316"/>
+      <c r="D14" s="309"/>
+      <c r="E14" s="307"/>
+      <c r="F14" s="308"/>
+      <c r="G14" s="309"/>
+      <c r="H14" s="316"/>
+      <c r="I14" s="309"/>
+      <c r="J14" s="309"/>
+      <c r="K14" s="309"/>
+      <c r="L14" s="309"/>
+      <c r="M14" s="312"/>
     </row>
     <row r="15" spans="1:14" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="307" t="s">
+      <c r="A15" s="313" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="305" t="s">
+      <c r="B15" s="304" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="306" t="s">
+      <c r="C15" s="314" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="305" t="s">
+      <c r="D15" s="304" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="339" t="s">
+      <c r="E15" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="340" t="s">
+      <c r="F15" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="334" t="s">
+      <c r="G15" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="H15" s="335" t="s">
+      <c r="H15" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="I15" s="307"/>
-      <c r="J15" s="307" t="s">
+      <c r="I15" s="313"/>
+      <c r="J15" s="313" t="s">
         <v>184</v>
       </c>
-      <c r="K15" s="307"/>
-      <c r="L15" s="308" t="s">
+      <c r="K15" s="313"/>
+      <c r="L15" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="M15" s="328" t="s">
+      <c r="M15" s="86" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="314"/>
-      <c r="B16" s="312"/>
-      <c r="C16" s="313"/>
-      <c r="D16" s="312"/>
-      <c r="E16" s="314" t="s">
+      <c r="A16" s="306"/>
+      <c r="B16" s="305"/>
+      <c r="C16" s="315"/>
+      <c r="D16" s="305"/>
+      <c r="E16" s="306" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="312" t="s">
+      <c r="F16" s="305" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="308" t="s">
+      <c r="G16" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="H16" s="336" t="s">
+      <c r="H16" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="314"/>
-      <c r="J16" s="314"/>
-      <c r="K16" s="314"/>
-      <c r="L16" s="307" t="s">
+      <c r="I16" s="306"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="313" t="s">
         <v>185</v>
       </c>
-      <c r="M16" s="330" t="s">
+      <c r="M16" s="311" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="329"/>
-      <c r="B17" s="331"/>
-      <c r="C17" s="332"/>
-      <c r="D17" s="331"/>
-      <c r="E17" s="329"/>
-      <c r="F17" s="331"/>
-      <c r="G17" s="334" t="s">
+      <c r="A17" s="309"/>
+      <c r="B17" s="310"/>
+      <c r="C17" s="316"/>
+      <c r="D17" s="310"/>
+      <c r="E17" s="309"/>
+      <c r="F17" s="310"/>
+      <c r="G17" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="H17" s="337" t="s">
+      <c r="H17" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="329"/>
-      <c r="J17" s="329"/>
-      <c r="K17" s="329"/>
-      <c r="L17" s="329"/>
-      <c r="M17" s="333"/>
+      <c r="I17" s="309"/>
+      <c r="J17" s="309"/>
+      <c r="K17" s="309"/>
+      <c r="L17" s="309"/>
+      <c r="M17" s="312"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="307" t="s">
+      <c r="A18" s="313" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="305" t="s">
+      <c r="B18" s="304" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="306" t="s">
+      <c r="C18" s="314" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="307" t="s">
+      <c r="D18" s="313" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="339" t="s">
+      <c r="E18" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="305" t="s">
+      <c r="F18" s="304" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="307" t="s">
+      <c r="G18" s="313" t="s">
         <v>177</v>
       </c>
-      <c r="H18" s="305" t="s">
+      <c r="H18" s="304" t="s">
         <v>182</v>
       </c>
-      <c r="I18" s="307"/>
-      <c r="J18" s="307" t="s">
+      <c r="I18" s="313"/>
+      <c r="J18" s="313" t="s">
         <v>183</v>
       </c>
-      <c r="K18" s="307"/>
-      <c r="L18" s="308" t="s">
+      <c r="K18" s="313"/>
+      <c r="L18" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="M18" s="330" t="s">
+      <c r="M18" s="311" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="314"/>
-      <c r="B19" s="312"/>
-      <c r="C19" s="313"/>
-      <c r="D19" s="314"/>
-      <c r="E19" s="314" t="s">
+      <c r="A19" s="306"/>
+      <c r="B19" s="305"/>
+      <c r="C19" s="315"/>
+      <c r="D19" s="306"/>
+      <c r="E19" s="306" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="312"/>
-      <c r="G19" s="314"/>
-      <c r="H19" s="312"/>
-      <c r="I19" s="314"/>
-      <c r="J19" s="314"/>
-      <c r="K19" s="314"/>
-      <c r="L19" s="308" t="s">
+      <c r="F19" s="305"/>
+      <c r="G19" s="306"/>
+      <c r="H19" s="305"/>
+      <c r="I19" s="306"/>
+      <c r="J19" s="306"/>
+      <c r="K19" s="306"/>
+      <c r="L19" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="M19" s="333"/>
+      <c r="M19" s="312"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="329"/>
-      <c r="B20" s="331"/>
-      <c r="C20" s="332"/>
-      <c r="D20" s="329"/>
-      <c r="E20" s="314"/>
-      <c r="F20" s="312" t="s">
+      <c r="A20" s="309"/>
+      <c r="B20" s="310"/>
+      <c r="C20" s="316"/>
+      <c r="D20" s="309"/>
+      <c r="E20" s="306"/>
+      <c r="F20" s="305" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="329"/>
-      <c r="H20" s="331"/>
-      <c r="I20" s="329"/>
-      <c r="J20" s="329"/>
-      <c r="K20" s="329"/>
-      <c r="L20" s="338" t="s">
+      <c r="G20" s="309"/>
+      <c r="H20" s="310"/>
+      <c r="I20" s="309"/>
+      <c r="J20" s="309"/>
+      <c r="K20" s="309"/>
+      <c r="L20" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="M20" s="328" t="s">
+      <c r="M20" s="86" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="323"/>
-      <c r="F21" s="321"/>
+      <c r="E21" s="307"/>
+      <c r="F21" s="308"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="M13:M14"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
@@ -5969,52 +6007,14 @@
     <mergeCell ref="K15:K17"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{04057ED9-23BA-42E0-87DC-6AB2F6FF554F}"/>
@@ -6046,84 +6046,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="108" t="str">
         <f>'Listado Objetos de Dominio'!A9</f>
         <v>Evento</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="133" t="str">
+      <c r="B3" s="110" t="str">
         <f>'Listado Objetos de Dominio'!B9</f>
         <v>Objeto de dominio que contiene la informacion sobre los eventos que estan asociados a las ofertas</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="126" t="s">
+      <c r="F4" s="112"/>
+      <c r="G4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="126"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -6133,53 +6133,53 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="130" t="s">
+      <c r="M4" s="107" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="124" t="s">
+      <c r="F5" s="112"/>
+      <c r="G5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="127" t="s">
+      <c r="H5" s="101"/>
+      <c r="I5" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="128" t="s">
+      <c r="J5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="125" t="s">
+      <c r="K5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="129"/>
-      <c r="M5" s="130"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="120"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -6192,80 +6192,92 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="130"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="107"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="287" t="s">
+      <c r="A7" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="288" t="s">
+      <c r="B7" s="334" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="288" t="s">
+      <c r="C7" s="334" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="289" t="s">
+      <c r="D7" s="330" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="288"/>
-      <c r="F7" s="288"/>
+      <c r="E7" s="334"/>
+      <c r="F7" s="334"/>
       <c r="G7" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="H7" s="290" t="s">
+      <c r="H7" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="I7" s="291"/>
-      <c r="J7" s="288" t="s">
+      <c r="I7" s="338"/>
+      <c r="J7" s="334" t="s">
         <v>160</v>
       </c>
-      <c r="K7" s="289"/>
+      <c r="K7" s="330"/>
       <c r="L7" s="62"/>
-      <c r="M7" s="292"/>
+      <c r="M7" s="80"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="293" t="s">
+      <c r="A8" s="328" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="294"/>
-      <c r="C8" s="294"/>
-      <c r="D8" s="295"/>
-      <c r="E8" s="294"/>
-      <c r="F8" s="294"/>
-      <c r="G8" s="289" t="s">
+      <c r="B8" s="335"/>
+      <c r="C8" s="335"/>
+      <c r="D8" s="337"/>
+      <c r="E8" s="335"/>
+      <c r="F8" s="335"/>
+      <c r="G8" s="330" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="296" t="s">
+      <c r="H8" s="332" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="297"/>
-      <c r="J8" s="294"/>
-      <c r="K8" s="295"/>
+      <c r="I8" s="339"/>
+      <c r="J8" s="335"/>
+      <c r="K8" s="337"/>
       <c r="L8" s="62"/>
-      <c r="M8" s="292"/>
+      <c r="M8" s="80"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="298"/>
-      <c r="B9" s="299"/>
-      <c r="C9" s="299"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="301"/>
-      <c r="I9" s="302"/>
-      <c r="J9" s="299"/>
-      <c r="K9" s="300"/>
+      <c r="A9" s="329"/>
+      <c r="B9" s="336"/>
+      <c r="C9" s="336"/>
+      <c r="D9" s="331"/>
+      <c r="E9" s="336"/>
+      <c r="F9" s="336"/>
+      <c r="G9" s="331"/>
+      <c r="H9" s="333"/>
+      <c r="I9" s="340"/>
+      <c r="J9" s="336"/>
+      <c r="K9" s="331"/>
       <c r="L9" s="62"/>
-      <c r="M9" s="292"/>
+      <c r="M9" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
@@ -6282,18 +6294,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{DC0CCFA1-193E-40E7-8F66-C4076B15F7A2}"/>
@@ -6304,15 +6304,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -6456,6 +6447,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6463,14 +6463,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52D198E-1C75-45AD-8A7E-B98F5C4409CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6484,6 +6476,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SpaOnline/EventStorming/Servicios-Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Servicios-Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEB07A7-51FF-43FE-A9D1-877B815F6B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7113EC0-CD91-46D2-9AD4-DEAAA335404C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="6" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="7" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="188">
   <si>
     <t>Descripción</t>
   </si>
@@ -625,9 +625,6 @@
     <t xml:space="preserve"> Las oferta del Evento debe ser una opción válida dentro de las ofertas predefinidas.</t>
   </si>
   <si>
-    <t>No debe existir otro Servicio con el mismo Evento, a exepcion de que sea el mismo que se esta modificando.</t>
-  </si>
-  <si>
     <t>Los datos del nuevo Evento deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
   </si>
   <si>
@@ -644,6 +641,12 @@
   </si>
   <si>
     <t>Evento Creado</t>
+  </si>
+  <si>
+    <t>Debe existir el evento que se esta modificando</t>
+  </si>
+  <si>
+    <t>No debe existir otro evento con el mismo nombre, a exepcion de que sea el mismo que se esta modificando.</t>
   </si>
 </sst>
 </file>
@@ -1604,6 +1607,162 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1646,170 +1805,140 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1818,15 +1947,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1838,134 +1958,101 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1982,98 +2069,14 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2092,61 +2095,40 @@
     <xf numFmtId="0" fontId="9" fillId="26" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2166,41 +2148,71 @@
     <xf numFmtId="0" fontId="9" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2208,71 +2220,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2916,84 +2919,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="108" t="e">
+      <c r="B2" s="160" t="e">
         <f>'Listado Objetos de Dominio'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="110" t="e">
+      <c r="B3" s="162" t="e">
         <f>'Listado Objetos de Dominio'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="111"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="163"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="103" t="s">
+      <c r="F4" s="138"/>
+      <c r="G4" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="155"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -3003,52 +3006,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="159" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="101" t="s">
+      <c r="F5" s="138"/>
+      <c r="G5" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="104" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="102" t="s">
+      <c r="K5" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="106"/>
-      <c r="M5" s="107"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="159"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="126"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -3061,39 +3064,39 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="107"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="159"/>
     </row>
     <row r="7" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
       <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113" t="s">
+      <c r="I7" s="124"/>
+      <c r="J7" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113" t="s">
+      <c r="K7" s="124"/>
+      <c r="L7" s="124" t="s">
         <v>42</v>
       </c>
       <c r="M7" s="22" t="s">
@@ -3101,45 +3104,45 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="136" t="s">
+      <c r="A8" s="140"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="138" t="s">
+      <c r="H8" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
       <c r="M9" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="127" t="s">
@@ -3148,23 +3151,23 @@
       <c r="C10" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133" t="s">
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133" t="s">
+      <c r="I10" s="98"/>
+      <c r="J10" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133" t="s">
+      <c r="K10" s="98"/>
+      <c r="L10" s="98" t="s">
         <v>41</v>
       </c>
       <c r="M10" s="23" t="s">
@@ -3172,82 +3175,82 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="135"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="128"/>
       <c r="C11" s="131"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
       <c r="H11" s="131"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
       <c r="M11" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="98" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="128"/>
       <c r="C12" s="131"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
       <c r="H12" s="131"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="162" t="s">
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="129"/>
       <c r="C13" s="132"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
       <c r="H13" s="132"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="163"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="112"/>
     </row>
     <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="148" t="s">
+      <c r="D14" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="24" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140" t="s">
+      <c r="I14" s="113"/>
+      <c r="J14" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="140"/>
+      <c r="K14" s="113"/>
       <c r="L14" s="27" t="s">
         <v>57</v>
       </c>
@@ -3256,109 +3259,109 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="141"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="27" t="s">
         <v>39</v>
       </c>
       <c r="H15" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="140" t="s">
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="143" t="s">
+      <c r="M15" s="119" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="142"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
       <c r="G16" s="24" t="s">
         <v>54</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="144"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="120"/>
     </row>
     <row r="17" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="151" t="s">
+      <c r="A17" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="156" t="s">
+      <c r="B17" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="159" t="s">
+      <c r="C17" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="151" t="s">
+      <c r="D17" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151" t="s">
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="156" t="s">
+      <c r="H17" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151" t="s">
+      <c r="I17" s="100"/>
+      <c r="J17" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="151"/>
+      <c r="K17" s="100"/>
       <c r="L17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="154" t="s">
+      <c r="M17" s="103" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="152"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
       <c r="L18" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="155"/>
+      <c r="M18" s="104"/>
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="153"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
       <c r="L19" s="31" t="s">
         <v>56</v>
       </c>
@@ -3368,6 +3371,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="J14:J16"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="M17:M18"/>
@@ -3384,56 +3437,6 @@
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -3478,84 +3481,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="160" t="str">
         <f>'Listado Objetos de Dominio'!A4</f>
         <v>Servicio</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="162" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene información detallada sobre los servicios específicos ofrecidos por el spa</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="111"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="163"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="103" t="s">
+      <c r="F4" s="138"/>
+      <c r="G4" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="155"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -3565,52 +3568,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="159" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="101" t="s">
+      <c r="F5" s="138"/>
+      <c r="G5" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="104" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="102" t="s">
+      <c r="K5" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="106"/>
-      <c r="M5" s="107"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="159"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="126"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -3623,29 +3626,29 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="107"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="159"/>
     </row>
     <row r="7" spans="1:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="209" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="173" t="s">
+      <c r="C7" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="176" t="s">
+      <c r="D7" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="176" t="s">
+      <c r="E7" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="209" t="s">
         <v>113</v>
       </c>
       <c r="G7" s="37" t="s">
@@ -3654,12 +3657,12 @@
       <c r="H7" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176" t="s">
+      <c r="I7" s="197"/>
+      <c r="J7" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176" t="s">
+      <c r="K7" s="197"/>
+      <c r="L7" s="197" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="34" t="s">
@@ -3667,93 +3670,93 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="171"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="179" t="s">
+      <c r="A8" s="207"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="200" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="181" t="s">
+      <c r="H8" s="202" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="177"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="198"/>
       <c r="M8" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="171"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="177"/>
-      <c r="M9" s="183" t="s">
+      <c r="A9" s="207"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="204" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="172"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="169"/>
+      <c r="A10" s="208"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="211"/>
       <c r="G10" s="36" t="s">
         <v>70</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="184"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="199"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="199"/>
+      <c r="M10" s="205"/>
     </row>
     <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="186" t="s">
+      <c r="B11" s="194" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="166" t="s">
+      <c r="D11" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="166" t="s">
+      <c r="E11" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="186" t="s">
+      <c r="F11" s="194" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="166" t="s">
+      <c r="G11" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="189" t="s">
+      <c r="H11" s="191" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166" t="s">
+      <c r="I11" s="175"/>
+      <c r="J11" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166" t="s">
+      <c r="K11" s="175"/>
+      <c r="L11" s="175" t="s">
         <v>65</v>
       </c>
       <c r="M11" s="38" t="s">
@@ -3761,73 +3764,73 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="165"/>
-      <c r="B12" s="187"/>
-      <c r="C12" s="190"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="185"/>
-      <c r="K12" s="185"/>
-      <c r="L12" s="185"/>
+      <c r="A12" s="177"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="176"/>
       <c r="M12" s="38" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="187"/>
-      <c r="C13" s="190"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="185"/>
-      <c r="K13" s="185"/>
-      <c r="L13" s="185"/>
-      <c r="M13" s="192" t="s">
+      <c r="B13" s="195"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="176"/>
+      <c r="M13" s="178" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="165"/>
-      <c r="B14" s="188"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="193"/>
+      <c r="A14" s="177"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="179"/>
     </row>
     <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="194" t="s">
+      <c r="A15" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="197" t="s">
+      <c r="B15" s="183" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="200" t="s">
+      <c r="C15" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="197" t="s">
+      <c r="D15" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="194" t="s">
+      <c r="E15" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="197" t="s">
+      <c r="F15" s="183" t="s">
         <v>113</v>
       </c>
       <c r="G15" s="39" t="s">
@@ -3836,11 +3839,11 @@
       <c r="H15" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="194"/>
-      <c r="J15" s="194" t="s">
+      <c r="I15" s="180"/>
+      <c r="J15" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="194"/>
+      <c r="K15" s="180"/>
       <c r="L15" s="41" t="s">
         <v>65</v>
       </c>
@@ -3849,113 +3852,113 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="195"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="198"/>
+      <c r="A16" s="181"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="184"/>
       <c r="G16" s="41" t="s">
         <v>64</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="195"/>
-      <c r="J16" s="195"/>
-      <c r="K16" s="195"/>
-      <c r="L16" s="194" t="s">
+      <c r="I16" s="181"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="203" t="s">
+      <c r="M16" s="189" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="196"/>
-      <c r="B17" s="199"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="199"/>
+      <c r="A17" s="182"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="185"/>
       <c r="G17" s="39" t="s">
         <v>78</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="196"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="196"/>
-      <c r="L17" s="196"/>
-      <c r="M17" s="204"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="190"/>
     </row>
     <row r="18" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="205" t="s">
+      <c r="A18" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="208" t="s">
+      <c r="B18" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="205" t="s">
+      <c r="D18" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="205" t="s">
+      <c r="E18" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="208" t="s">
+      <c r="F18" s="169" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="205" t="s">
+      <c r="G18" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="208" t="s">
+      <c r="H18" s="169" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="205"/>
-      <c r="J18" s="205" t="s">
+      <c r="I18" s="164"/>
+      <c r="J18" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="205"/>
+      <c r="K18" s="164"/>
       <c r="L18" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="214" t="s">
+      <c r="M18" s="167" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="206"/>
-      <c r="B19" s="209"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="206"/>
+      <c r="A19" s="165"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
       <c r="L19" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="M19" s="215"/>
+      <c r="M19" s="168"/>
     </row>
     <row r="20" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="207"/>
-      <c r="B20" s="210"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="207"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="207"/>
-      <c r="K20" s="207"/>
+      <c r="A20" s="166"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
       <c r="L20" s="46" t="s">
         <v>80</v>
       </c>
@@ -3965,18 +3968,45 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
     <mergeCell ref="L11:L14"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="A15:A17"/>
@@ -3993,45 +4023,18 @@
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -4075,84 +4078,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="108" t="e">
+      <c r="B2" s="160" t="e">
         <f>'Listado Objetos de Dominio'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="110" t="e">
+      <c r="B3" s="162" t="e">
         <f>'Listado Objetos de Dominio'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="111"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="163"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="103" t="s">
+      <c r="F4" s="138"/>
+      <c r="G4" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="155"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -4162,52 +4165,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="217" t="s">
+      <c r="L4" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="218" t="s">
+      <c r="M4" s="254" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="101" t="s">
+      <c r="F5" s="138"/>
+      <c r="G5" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="104" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="102" t="s">
+      <c r="K5" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="217"/>
-      <c r="M5" s="218"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="254"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="126"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -4220,29 +4223,29 @@
       <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="217"/>
-      <c r="M6" s="218"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="253"/>
+      <c r="M6" s="254"/>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="219" t="s">
+      <c r="A7" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="148" t="s">
+      <c r="F7" s="116" t="s">
         <v>111</v>
       </c>
       <c r="G7" s="27" t="s">
@@ -4251,12 +4254,12 @@
       <c r="H7" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140" t="s">
+      <c r="I7" s="113"/>
+      <c r="J7" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140" t="s">
+      <c r="K7" s="113"/>
+      <c r="L7" s="113" t="s">
         <v>92</v>
       </c>
       <c r="M7" s="49" t="s">
@@ -4264,93 +4267,93 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="220"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="225" t="s">
+      <c r="A8" s="248"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="227" t="s">
+      <c r="H8" s="241" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
       <c r="M8" s="49" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="220"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="226"/>
-      <c r="H9" s="228"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="229" t="s">
+      <c r="A9" s="248"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="242"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="243" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="221"/>
-      <c r="B10" s="222"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="222"/>
+      <c r="A10" s="249"/>
+      <c r="B10" s="250"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="250"/>
       <c r="G10" s="50" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="224"/>
-      <c r="J10" s="224"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="230"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="244"/>
     </row>
     <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="216" t="s">
+      <c r="A11" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="113" t="s">
+      <c r="G11" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113" t="s">
+      <c r="I11" s="124"/>
+      <c r="J11" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113" t="s">
+      <c r="K11" s="124"/>
+      <c r="L11" s="124" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="20" t="s">
@@ -4358,73 +4361,73 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
       <c r="M12" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="231" t="s">
+      <c r="B13" s="143"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="245" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="232"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="246"/>
     </row>
     <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="233" t="s">
+      <c r="A15" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="236" t="s">
+      <c r="B15" s="229" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="239" t="s">
+      <c r="C15" s="235" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="236" t="s">
+      <c r="D15" s="229" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="233" t="s">
+      <c r="E15" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="236" t="s">
+      <c r="F15" s="229" t="s">
         <v>111</v>
       </c>
       <c r="G15" s="52" t="s">
@@ -4433,11 +4436,11 @@
       <c r="H15" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="233"/>
-      <c r="J15" s="233" t="s">
+      <c r="I15" s="232"/>
+      <c r="J15" s="232" t="s">
         <v>104</v>
       </c>
-      <c r="K15" s="233"/>
+      <c r="K15" s="232"/>
       <c r="L15" s="54" t="s">
         <v>91</v>
       </c>
@@ -4446,113 +4449,113 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="234"/>
-      <c r="B16" s="237"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="237"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="237"/>
+      <c r="A16" s="233"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="236"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="230"/>
       <c r="G16" s="54" t="s">
         <v>87</v>
       </c>
       <c r="H16" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="234"/>
-      <c r="J16" s="234"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="233" t="s">
+      <c r="I16" s="233"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="233"/>
+      <c r="L16" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="242" t="s">
+      <c r="M16" s="216" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="235"/>
-      <c r="B17" s="238"/>
-      <c r="C17" s="241"/>
-      <c r="D17" s="238"/>
-      <c r="E17" s="235"/>
-      <c r="F17" s="238"/>
+      <c r="A17" s="234"/>
+      <c r="B17" s="231"/>
+      <c r="C17" s="237"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="231"/>
       <c r="G17" s="52" t="s">
         <v>103</v>
       </c>
       <c r="H17" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="235"/>
-      <c r="J17" s="235"/>
-      <c r="K17" s="235"/>
-      <c r="L17" s="235"/>
-      <c r="M17" s="243"/>
+      <c r="I17" s="234"/>
+      <c r="J17" s="234"/>
+      <c r="K17" s="234"/>
+      <c r="L17" s="234"/>
+      <c r="M17" s="217"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="244" t="s">
+      <c r="A18" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="247" t="s">
+      <c r="B18" s="221" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="250" t="s">
+      <c r="C18" s="224" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="244" t="s">
+      <c r="D18" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="244" t="s">
+      <c r="E18" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="247" t="s">
+      <c r="F18" s="221" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="244" t="s">
+      <c r="G18" s="218" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="250" t="s">
+      <c r="H18" s="224" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="244"/>
-      <c r="J18" s="244" t="s">
+      <c r="I18" s="218"/>
+      <c r="J18" s="218" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="244"/>
+      <c r="K18" s="218"/>
       <c r="L18" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="253" t="s">
+      <c r="M18" s="227" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="245"/>
-      <c r="B19" s="248"/>
-      <c r="C19" s="251"/>
-      <c r="D19" s="245"/>
-      <c r="E19" s="245"/>
-      <c r="F19" s="248"/>
-      <c r="G19" s="245"/>
-      <c r="H19" s="251"/>
-      <c r="I19" s="245"/>
-      <c r="J19" s="245"/>
-      <c r="K19" s="245"/>
+      <c r="A19" s="219"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="222"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="225"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="219"/>
+      <c r="K19" s="219"/>
       <c r="L19" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="254"/>
+      <c r="M19" s="228"/>
     </row>
     <row r="20" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="246"/>
-      <c r="B20" s="249"/>
-      <c r="C20" s="252"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="246"/>
-      <c r="F20" s="249"/>
-      <c r="G20" s="246"/>
-      <c r="H20" s="252"/>
-      <c r="I20" s="246"/>
-      <c r="J20" s="246"/>
-      <c r="K20" s="246"/>
+      <c r="A20" s="220"/>
+      <c r="B20" s="223"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="223"/>
+      <c r="G20" s="220"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="220"/>
+      <c r="K20" s="220"/>
       <c r="L20" s="59" t="s">
         <v>104</v>
       </c>
@@ -4562,6 +4565,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
@@ -4578,57 +4632,6 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D411DE6F-B6AA-4877-8454-AEC23893A3C7}"/>
@@ -4672,84 +4675,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="160" t="str">
         <f>'Listado Objetos de Dominio'!A10</f>
         <v>Estado</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="162" t="str">
         <f>'Listado Objetos de Dominio'!B10</f>
         <v>Objeto de dominio que contiene la informacion del estado de la tarifa asociada a los sevicios</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="111"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="163"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="103" t="s">
+      <c r="F4" s="138"/>
+      <c r="G4" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="155"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -4759,52 +4762,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="159" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="101" t="s">
+      <c r="F5" s="138"/>
+      <c r="G5" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="104" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="102" t="s">
+      <c r="K5" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="106"/>
-      <c r="M5" s="107"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="159"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="126"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -4817,11 +4820,11 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="107"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="159"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
@@ -4884,6 +4887,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -4900,18 +4915,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{E9A8B856-90A6-4B8A-B936-E67475BADDD0}"/>
@@ -4925,7 +4928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F0DE3C-52E8-4B44-95CA-36211D6EC216}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+    <sheetView topLeftCell="D6" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4954,84 +4957,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="160" t="str">
         <f>'Listado Objetos de Dominio'!A7</f>
         <v>Tarifa</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="162" t="str">
         <f>'Listado Objetos de Dominio'!B7</f>
         <v xml:space="preserve">Objeto de dominio que contiene información sobre los valores de los servicios </v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="111"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="163"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="103" t="s">
+      <c r="F4" s="138"/>
+      <c r="G4" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="155"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -5041,52 +5044,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="159" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="101" t="s">
+      <c r="F5" s="138"/>
+      <c r="G5" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="104" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="102" t="s">
+      <c r="K5" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="106"/>
-      <c r="M5" s="107"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="159"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="126"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -5099,23 +5102,23 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="107"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="159"/>
     </row>
     <row r="7" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="268" t="s">
+      <c r="A7" s="294" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="271" t="s">
+      <c r="B7" s="292" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="274" t="s">
+      <c r="C7" s="295" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="277" t="s">
+      <c r="D7" s="296" t="s">
         <v>138</v>
       </c>
       <c r="E7" s="74" t="s">
@@ -5130,12 +5133,12 @@
       <c r="H7" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="271"/>
-      <c r="J7" s="271" t="s">
+      <c r="I7" s="292"/>
+      <c r="J7" s="292" t="s">
         <v>143</v>
       </c>
-      <c r="K7" s="271"/>
-      <c r="L7" s="292" t="s">
+      <c r="K7" s="292"/>
+      <c r="L7" s="262" t="s">
         <v>145</v>
       </c>
       <c r="M7" s="67" t="s">
@@ -5143,56 +5146,56 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="269"/>
-      <c r="B8" s="272"/>
-      <c r="C8" s="275"/>
-      <c r="D8" s="278"/>
-      <c r="E8" s="266" t="s">
+      <c r="A8" s="286"/>
+      <c r="B8" s="283"/>
+      <c r="C8" s="289"/>
+      <c r="D8" s="297"/>
+      <c r="E8" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="267" t="s">
+      <c r="F8" s="281" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="271" t="s">
+      <c r="G8" s="292" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="280" t="s">
+      <c r="H8" s="293" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="272"/>
-      <c r="J8" s="272"/>
-      <c r="K8" s="272"/>
-      <c r="L8" s="293"/>
-      <c r="M8" s="295" t="s">
+      <c r="I8" s="283"/>
+      <c r="J8" s="283"/>
+      <c r="K8" s="283"/>
+      <c r="L8" s="263"/>
+      <c r="M8" s="265" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="270"/>
-      <c r="B9" s="273"/>
-      <c r="C9" s="276"/>
-      <c r="D9" s="279"/>
-      <c r="E9" s="266"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="273"/>
-      <c r="H9" s="273"/>
-      <c r="I9" s="273"/>
-      <c r="J9" s="273"/>
-      <c r="K9" s="273"/>
-      <c r="L9" s="294"/>
-      <c r="M9" s="296"/>
+      <c r="A9" s="287"/>
+      <c r="B9" s="284"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="298"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="281"/>
+      <c r="G9" s="284"/>
+      <c r="H9" s="284"/>
+      <c r="I9" s="284"/>
+      <c r="J9" s="284"/>
+      <c r="K9" s="284"/>
+      <c r="L9" s="264"/>
+      <c r="M9" s="266"/>
     </row>
     <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="282" t="s">
+      <c r="A10" s="285" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="281" t="s">
+      <c r="B10" s="282" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="283" t="s">
+      <c r="C10" s="288" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="284" t="s">
+      <c r="D10" s="291" t="s">
         <v>138</v>
       </c>
       <c r="E10" s="76" t="s">
@@ -5207,11 +5210,11 @@
       <c r="H10" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="281"/>
-      <c r="J10" s="281" t="s">
+      <c r="I10" s="282"/>
+      <c r="J10" s="282" t="s">
         <v>144</v>
       </c>
-      <c r="K10" s="281"/>
+      <c r="K10" s="282"/>
       <c r="L10" s="69" t="s">
         <v>143</v>
       </c>
@@ -5220,14 +5223,14 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="269"/>
-      <c r="B11" s="272"/>
-      <c r="C11" s="275"/>
-      <c r="D11" s="272"/>
-      <c r="E11" s="264" t="s">
+      <c r="A11" s="286"/>
+      <c r="B11" s="283"/>
+      <c r="C11" s="289"/>
+      <c r="D11" s="283"/>
+      <c r="E11" s="302" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="265" t="s">
+      <c r="F11" s="303" t="s">
         <v>111</v>
       </c>
       <c r="G11" s="69" t="s">
@@ -5236,46 +5239,46 @@
       <c r="H11" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="272"/>
-      <c r="J11" s="272"/>
-      <c r="K11" s="272"/>
-      <c r="L11" s="297" t="s">
+      <c r="I11" s="283"/>
+      <c r="J11" s="283"/>
+      <c r="K11" s="283"/>
+      <c r="L11" s="267" t="s">
         <v>145</v>
       </c>
-      <c r="M11" s="299" t="s">
+      <c r="M11" s="269" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="270"/>
-      <c r="B12" s="273"/>
-      <c r="C12" s="276"/>
-      <c r="D12" s="273"/>
-      <c r="E12" s="264"/>
-      <c r="F12" s="265"/>
+      <c r="A12" s="287"/>
+      <c r="B12" s="284"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="284"/>
+      <c r="E12" s="302"/>
+      <c r="F12" s="303"/>
       <c r="G12" s="69" t="s">
         <v>152</v>
       </c>
       <c r="H12" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="273"/>
-      <c r="J12" s="273"/>
-      <c r="K12" s="273"/>
-      <c r="L12" s="298"/>
-      <c r="M12" s="300"/>
+      <c r="I12" s="284"/>
+      <c r="J12" s="284"/>
+      <c r="K12" s="284"/>
+      <c r="L12" s="268"/>
+      <c r="M12" s="270"/>
     </row>
     <row r="13" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="262" t="s">
+      <c r="A13" s="300" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="274" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="288" t="s">
+      <c r="C13" s="277" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="285" t="s">
+      <c r="D13" s="274" t="s">
         <v>138</v>
       </c>
       <c r="E13" s="74" t="s">
@@ -5284,18 +5287,18 @@
       <c r="F13" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="285" t="s">
+      <c r="G13" s="274" t="s">
         <v>155</v>
       </c>
-      <c r="H13" s="291" t="s">
+      <c r="H13" s="280" t="s">
         <v>135</v>
       </c>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285" t="s">
+      <c r="I13" s="274"/>
+      <c r="J13" s="274" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="285"/>
-      <c r="L13" s="301" t="s">
+      <c r="K13" s="274"/>
+      <c r="L13" s="271" t="s">
         <v>143</v>
       </c>
       <c r="M13" s="73" t="s">
@@ -5303,23 +5306,23 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="263"/>
-      <c r="B14" s="286"/>
-      <c r="C14" s="289"/>
-      <c r="D14" s="286"/>
-      <c r="E14" s="266" t="s">
+      <c r="A14" s="301"/>
+      <c r="B14" s="275"/>
+      <c r="C14" s="278"/>
+      <c r="D14" s="275"/>
+      <c r="E14" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="267" t="s">
+      <c r="F14" s="281" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="286"/>
-      <c r="H14" s="286"/>
-      <c r="I14" s="286"/>
-      <c r="J14" s="286"/>
-      <c r="K14" s="286"/>
-      <c r="L14" s="303"/>
-      <c r="M14" s="301" t="s">
+      <c r="G14" s="275"/>
+      <c r="H14" s="275"/>
+      <c r="I14" s="275"/>
+      <c r="J14" s="275"/>
+      <c r="K14" s="275"/>
+      <c r="L14" s="273"/>
+      <c r="M14" s="271" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5327,21 +5330,59 @@
       <c r="A15" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="287"/>
-      <c r="C15" s="290"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="266"/>
-      <c r="F15" s="267"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="287"/>
-      <c r="J15" s="287"/>
-      <c r="K15" s="287"/>
-      <c r="L15" s="302"/>
-      <c r="M15" s="302"/>
+      <c r="B15" s="276"/>
+      <c r="C15" s="279"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="299"/>
+      <c r="F15" s="281"/>
+      <c r="G15" s="276"/>
+      <c r="H15" s="276"/>
+      <c r="I15" s="276"/>
+      <c r="J15" s="276"/>
+      <c r="K15" s="276"/>
+      <c r="L15" s="272"/>
+      <c r="M15" s="272"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
@@ -5358,44 +5399,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{FD666A64-A631-4F26-B363-B1931927FDB8}"/>
@@ -5409,8 +5412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F3AF80-7EC6-45B5-B8C2-6B1DE94026C1}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5438,84 +5441,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="160" t="str">
         <f>'Listado Objetos de Dominio'!A9</f>
         <v>Evento</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="162" t="str">
         <f>'Listado Objetos de Dominio'!B9</f>
         <v>Objeto de dominio que contiene la informacion sobre los eventos que estan asociados a las ofertas</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="111"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="163"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="103" t="s">
+      <c r="F4" s="138"/>
+      <c r="G4" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="155"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -5525,52 +5528,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="159" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="101" t="s">
+      <c r="F5" s="138"/>
+      <c r="G5" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="104" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="102" t="s">
+      <c r="K5" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="106"/>
-      <c r="M5" s="107"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="159"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="126"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -5583,20 +5586,20 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="107"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="159"/>
     </row>
     <row r="7" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="324" t="s">
+      <c r="A7" s="304" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="304" t="s">
+      <c r="B7" s="307" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="314" t="s">
+      <c r="C7" s="310" t="s">
         <v>167</v>
       </c>
       <c r="D7" s="313" t="s">
@@ -5605,7 +5608,7 @@
       <c r="E7" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="304" t="s">
+      <c r="F7" s="307" t="s">
         <v>114</v>
       </c>
       <c r="G7" s="81" t="s">
@@ -5616,85 +5619,85 @@
       </c>
       <c r="I7" s="313"/>
       <c r="J7" s="313" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K7" s="313"/>
       <c r="L7" s="313" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M7" s="83" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="325"/>
-      <c r="B8" s="305"/>
-      <c r="C8" s="315"/>
-      <c r="D8" s="306"/>
-      <c r="E8" s="306" t="s">
+      <c r="A8" s="305"/>
+      <c r="B8" s="308"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="314"/>
+      <c r="E8" s="314" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="305"/>
-      <c r="G8" s="320" t="s">
+      <c r="F8" s="308"/>
+      <c r="G8" s="316" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="322" t="s">
+      <c r="H8" s="318" t="s">
         <v>178</v>
       </c>
-      <c r="I8" s="306"/>
-      <c r="J8" s="306"/>
-      <c r="K8" s="306"/>
-      <c r="L8" s="306"/>
+      <c r="I8" s="314"/>
+      <c r="J8" s="314"/>
+      <c r="K8" s="314"/>
+      <c r="L8" s="314"/>
       <c r="M8" s="83" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="325"/>
-      <c r="B9" s="305"/>
-      <c r="C9" s="315"/>
-      <c r="D9" s="306"/>
-      <c r="E9" s="306"/>
-      <c r="F9" s="305" t="s">
+      <c r="A9" s="305"/>
+      <c r="B9" s="308"/>
+      <c r="C9" s="311"/>
+      <c r="D9" s="314"/>
+      <c r="E9" s="314"/>
+      <c r="F9" s="308" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="321"/>
-      <c r="H9" s="323"/>
-      <c r="I9" s="306"/>
-      <c r="J9" s="306"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306"/>
-      <c r="M9" s="317" t="s">
+      <c r="G9" s="317"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="314"/>
+      <c r="J9" s="314"/>
+      <c r="K9" s="314"/>
+      <c r="L9" s="314"/>
+      <c r="M9" s="322" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="326"/>
-      <c r="B10" s="308"/>
-      <c r="C10" s="327"/>
-      <c r="D10" s="307"/>
-      <c r="E10" s="307"/>
-      <c r="F10" s="308"/>
+      <c r="A10" s="306"/>
+      <c r="B10" s="309"/>
+      <c r="C10" s="312"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="309"/>
       <c r="G10" s="84" t="s">
         <v>173</v>
       </c>
       <c r="H10" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="I10" s="307"/>
-      <c r="J10" s="307"/>
-      <c r="K10" s="307"/>
-      <c r="L10" s="307"/>
-      <c r="M10" s="318"/>
+      <c r="I10" s="315"/>
+      <c r="J10" s="315"/>
+      <c r="K10" s="315"/>
+      <c r="L10" s="315"/>
+      <c r="M10" s="323"/>
     </row>
     <row r="11" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="319" t="s">
+      <c r="A11" s="324" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="304" t="s">
+      <c r="B11" s="307" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="314" t="s">
+      <c r="C11" s="310" t="s">
         <v>168</v>
       </c>
       <c r="D11" s="313" t="s">
@@ -5703,42 +5706,42 @@
       <c r="E11" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="304" t="s">
+      <c r="F11" s="307" t="s">
         <v>114</v>
       </c>
       <c r="G11" s="313" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="314" t="s">
+      <c r="H11" s="310" t="s">
         <v>50</v>
       </c>
       <c r="I11" s="313"/>
       <c r="J11" s="313" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K11" s="313"/>
       <c r="L11" s="313" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M11" s="86" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="309"/>
-      <c r="B12" s="305"/>
-      <c r="C12" s="315"/>
-      <c r="D12" s="306"/>
-      <c r="E12" s="306" t="s">
+      <c r="A12" s="325"/>
+      <c r="B12" s="308"/>
+      <c r="C12" s="311"/>
+      <c r="D12" s="314"/>
+      <c r="E12" s="314" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="305"/>
-      <c r="G12" s="306"/>
-      <c r="H12" s="315"/>
-      <c r="I12" s="306"/>
-      <c r="J12" s="306"/>
-      <c r="K12" s="306"/>
-      <c r="L12" s="306"/>
+      <c r="F12" s="308"/>
+      <c r="G12" s="314"/>
+      <c r="H12" s="311"/>
+      <c r="I12" s="314"/>
+      <c r="J12" s="314"/>
+      <c r="K12" s="314"/>
+      <c r="L12" s="314"/>
       <c r="M12" s="86" t="s">
         <v>165</v>
       </c>
@@ -5747,49 +5750,49 @@
       <c r="A13" s="313" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="305"/>
-      <c r="C13" s="315"/>
-      <c r="D13" s="306"/>
-      <c r="E13" s="306"/>
-      <c r="F13" s="305" t="s">
+      <c r="B13" s="308"/>
+      <c r="C13" s="311"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="308" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="306"/>
-      <c r="H13" s="315"/>
-      <c r="I13" s="306"/>
-      <c r="J13" s="306"/>
-      <c r="K13" s="306"/>
-      <c r="L13" s="306"/>
-      <c r="M13" s="311" t="s">
+      <c r="G13" s="314"/>
+      <c r="H13" s="311"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="314"/>
+      <c r="M13" s="326" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="309"/>
-      <c r="B14" s="310"/>
-      <c r="C14" s="316"/>
-      <c r="D14" s="309"/>
-      <c r="E14" s="307"/>
-      <c r="F14" s="308"/>
-      <c r="G14" s="309"/>
-      <c r="H14" s="316"/>
-      <c r="I14" s="309"/>
-      <c r="J14" s="309"/>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
-      <c r="M14" s="312"/>
+      <c r="A14" s="325"/>
+      <c r="B14" s="320"/>
+      <c r="C14" s="321"/>
+      <c r="D14" s="325"/>
+      <c r="E14" s="315"/>
+      <c r="F14" s="309"/>
+      <c r="G14" s="325"/>
+      <c r="H14" s="321"/>
+      <c r="I14" s="325"/>
+      <c r="J14" s="325"/>
+      <c r="K14" s="325"/>
+      <c r="L14" s="325"/>
+      <c r="M14" s="327"/>
     </row>
     <row r="15" spans="1:14" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="313" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="304" t="s">
+      <c r="B15" s="307" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="314" t="s">
+      <c r="C15" s="310" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="304" t="s">
+      <c r="D15" s="307" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="92" t="s">
@@ -5802,74 +5805,74 @@
         <v>175</v>
       </c>
       <c r="H15" s="88" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I15" s="313"/>
       <c r="J15" s="313" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K15" s="313"/>
       <c r="L15" s="81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M15" s="86" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="306"/>
-      <c r="B16" s="305"/>
-      <c r="C16" s="315"/>
-      <c r="D16" s="305"/>
-      <c r="E16" s="306" t="s">
+      <c r="A16" s="314"/>
+      <c r="B16" s="308"/>
+      <c r="C16" s="311"/>
+      <c r="D16" s="308"/>
+      <c r="E16" s="314" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="305" t="s">
+      <c r="F16" s="308" t="s">
         <v>118</v>
       </c>
       <c r="G16" s="81" t="s">
         <v>172</v>
       </c>
       <c r="H16" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="I16" s="306"/>
-      <c r="J16" s="306"/>
-      <c r="K16" s="306"/>
+        <v>180</v>
+      </c>
+      <c r="I16" s="314"/>
+      <c r="J16" s="314"/>
+      <c r="K16" s="314"/>
       <c r="L16" s="313" t="s">
-        <v>185</v>
-      </c>
-      <c r="M16" s="311" t="s">
+        <v>184</v>
+      </c>
+      <c r="M16" s="326" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="309"/>
-      <c r="B17" s="310"/>
-      <c r="C17" s="316"/>
-      <c r="D17" s="310"/>
-      <c r="E17" s="309"/>
-      <c r="F17" s="310"/>
+      <c r="A17" s="325"/>
+      <c r="B17" s="320"/>
+      <c r="C17" s="321"/>
+      <c r="D17" s="320"/>
+      <c r="E17" s="325"/>
+      <c r="F17" s="320"/>
       <c r="G17" s="87" t="s">
         <v>176</v>
       </c>
       <c r="H17" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="309"/>
-      <c r="J17" s="309"/>
-      <c r="K17" s="309"/>
-      <c r="L17" s="309"/>
-      <c r="M17" s="312"/>
+        <v>186</v>
+      </c>
+      <c r="I17" s="325"/>
+      <c r="J17" s="325"/>
+      <c r="K17" s="325"/>
+      <c r="L17" s="325"/>
+      <c r="M17" s="327"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="313" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="304" t="s">
+      <c r="B18" s="307" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="314" t="s">
+      <c r="C18" s="310" t="s">
         <v>170</v>
       </c>
       <c r="D18" s="313" t="s">
@@ -5878,78 +5881,122 @@
       <c r="E18" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="304" t="s">
+      <c r="F18" s="307" t="s">
         <v>114</v>
       </c>
       <c r="G18" s="313" t="s">
         <v>177</v>
       </c>
-      <c r="H18" s="304" t="s">
-        <v>182</v>
+      <c r="H18" s="307" t="s">
+        <v>181</v>
       </c>
       <c r="I18" s="313"/>
       <c r="J18" s="313" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K18" s="313"/>
       <c r="L18" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="M18" s="311" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" s="326" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="306"/>
-      <c r="B19" s="305"/>
-      <c r="C19" s="315"/>
-      <c r="D19" s="306"/>
-      <c r="E19" s="306" t="s">
+      <c r="A19" s="314"/>
+      <c r="B19" s="308"/>
+      <c r="C19" s="311"/>
+      <c r="D19" s="314"/>
+      <c r="E19" s="314" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="305"/>
-      <c r="G19" s="306"/>
-      <c r="H19" s="305"/>
-      <c r="I19" s="306"/>
-      <c r="J19" s="306"/>
-      <c r="K19" s="306"/>
+      <c r="F19" s="308"/>
+      <c r="G19" s="314"/>
+      <c r="H19" s="308"/>
+      <c r="I19" s="314"/>
+      <c r="J19" s="314"/>
+      <c r="K19" s="314"/>
       <c r="L19" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="M19" s="312"/>
+        <v>184</v>
+      </c>
+      <c r="M19" s="327"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="309"/>
-      <c r="B20" s="310"/>
-      <c r="C20" s="316"/>
-      <c r="D20" s="309"/>
-      <c r="E20" s="306"/>
-      <c r="F20" s="305" t="s">
+      <c r="A20" s="325"/>
+      <c r="B20" s="320"/>
+      <c r="C20" s="321"/>
+      <c r="D20" s="325"/>
+      <c r="E20" s="314"/>
+      <c r="F20" s="308" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="309"/>
-      <c r="H20" s="310"/>
-      <c r="I20" s="309"/>
-      <c r="J20" s="309"/>
-      <c r="K20" s="309"/>
+      <c r="G20" s="325"/>
+      <c r="H20" s="320"/>
+      <c r="I20" s="325"/>
+      <c r="J20" s="325"/>
+      <c r="K20" s="325"/>
       <c r="L20" s="91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M20" s="86" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="307"/>
-      <c r="F21" s="308"/>
+      <c r="E21" s="315"/>
+      <c r="F21" s="309"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
@@ -5966,55 +6013,11 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{04057ED9-23BA-42E0-87DC-6AB2F6FF554F}"/>
@@ -6046,84 +6049,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="108" t="str">
+      <c r="B2" s="160" t="str">
         <f>'Listado Objetos de Dominio'!A9</f>
         <v>Evento</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="161"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="162" t="str">
         <f>'Listado Objetos de Dominio'!B9</f>
         <v>Objeto de dominio que contiene la informacion sobre los eventos que estan asociados a las ofertas</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="111"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="163"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="103" t="s">
+      <c r="F4" s="138"/>
+      <c r="G4" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="155"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -6133,53 +6136,53 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="159" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="101" t="s">
+      <c r="F5" s="138"/>
+      <c r="G5" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="104" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="102" t="s">
+      <c r="K5" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="106"/>
-      <c r="M5" s="107"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="159"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="126"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -6192,11 +6195,11 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="107"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="159"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -6266,18 +6269,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
@@ -6294,6 +6285,18 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{DC0CCFA1-193E-40E7-8F66-C4076B15F7A2}"/>
@@ -6304,6 +6307,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -6447,22 +6465,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52D198E-1C75-45AD-8A7E-B98F5C4409CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6480,31 +6508,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{86cab09b-e61a-4c01-96e7-67fc9e3d8cd5}" enabled="1" method="Standard" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="8" removed="0"/>
